--- a/Export Data.xlsx
+++ b/Export Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>a--&gt;b--&gt;a</t>
+          <t>c--&gt;d--&gt;c</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -485,21 +485,21 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>a,b</t>
+          <t>c,d</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2,4,6</t>
+          <t>4,4,4</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>a,b</t>
+          <t>c,d</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>a--&gt;b--&gt;c--&gt;b--&gt;a</t>
+          <t>c--&gt;d--&gt;c</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Distance</t>
+          <t>Time</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -522,17 +522,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>a,c</t>
+          <t>c,d</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4,8,12</t>
+          <t>4,4,4</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>a,b,c</t>
+          <t>c,d</t>
         </is>
       </c>
     </row>
@@ -542,12 +542,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>a--&gt;b--&gt;c--&gt;b--&gt;a</t>
+          <t>c--&gt;d--&gt;c</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Distance</t>
+          <t>Cost</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -555,215 +555,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>a,b,c</t>
+          <t>c,d</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4,8,12</t>
+          <t>4,4,4</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>a,b,c</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>a--&gt;b--&gt;a</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>a,b</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2,4,6</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>a,b</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>a--&gt;b--&gt;c--&gt;b--&gt;a</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>8</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>a,c</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4,8,12</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>a,b,c</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>a--&gt;b--&gt;c--&gt;b--&gt;a</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>8</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>a,b,c</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4,8,12</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>a,b,c</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>a--&gt;b--&gt;a</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Cost</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>6</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>a,b</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2,4,6</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>a,b</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>a--&gt;b--&gt;c--&gt;b--&gt;a</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Cost</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>12</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>a,c</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4,8,12</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>a,b,c</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>a--&gt;b--&gt;c--&gt;b--&gt;a</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Cost</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>12</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>a,b,c</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4,8,12</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>a,b,c</t>
+          <t>c,d</t>
         </is>
       </c>
     </row>

--- a/Export Data.xlsx
+++ b/Export Data.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>c--&gt;d--&gt;c</t>
+          <t>a--&gt;b</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -485,21 +485,21 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>1000000000</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>c,d</t>
+          <t>a,b</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4,4,4</t>
+          <t>1,1,1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>c,d</t>
+          <t>a,b</t>
         </is>
       </c>
     </row>
@@ -509,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>c--&gt;d--&gt;c</t>
+          <t>a--&gt;b</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,21 +518,21 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>1000000000</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>c,d</t>
+          <t>a,b</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4,4,4</t>
+          <t>1,1,1</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>c,d</t>
+          <t>a,b</t>
         </is>
       </c>
     </row>
@@ -542,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>c--&gt;d--&gt;c</t>
+          <t>a--&gt;b</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,21 +551,21 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>1000000000</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>c,d</t>
+          <t>a,b</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4,4,4</t>
+          <t>1,1,1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>c,d</t>
+          <t>a,b</t>
         </is>
       </c>
     </row>

--- a/Export Data.xlsx
+++ b/Export Data.xlsx
@@ -542,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -560,12 +560,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>20,43,46.66</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -692,12 +692,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>20,43,46.66</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
         </is>
       </c>
     </row>
@@ -938,7 +938,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -956,12 +956,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>25.1,45,58.56</t>
+          <t>20,43,46.66</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -989,12 +989,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>52,55,98.66</t>
+          <t>52.112,57,98.66</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>57.6,66,111.73</t>
+          <t>57.712,68,111.73</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1055,12 +1055,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>13.1,27,30.56</t>
+          <t>57.212,69,110.56</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1088,12 +1088,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>64,82,126.66</t>
+          <t>64.112,85,126.66</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1121,12 +1121,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>52,55,98.66</t>
+          <t>52.112,57,98.66</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1154,12 +1154,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>57.6,66,111.73</t>
+          <t>57.712,68,111.73</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1187,12 +1187,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>13.1,27,30.56</t>
+          <t>57.212,69,110.56</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1220,12 +1220,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>64,82,126.66</t>
+          <t>64.112,85,126.66</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>57.8,62,112.19</t>
+          <t>57.912,64,112.19</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1352,12 +1352,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>20,43,46.66</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
         </is>
       </c>
     </row>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1385,12 +1385,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>57.8,62,112.19</t>
+          <t>57.912,64,112.19</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1484,12 +1484,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>20,43,46.66</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
         </is>
       </c>
     </row>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1550,12 +1550,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>57.712,68,111.73</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1583,12 +1583,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>13.1,27,30.56</t>
+          <t>57.212,69,110.56</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1616,12 +1616,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>20,43,46.66</t>
+          <t>64.112,85,126.66</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1649,12 +1649,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>8,15,18.66</t>
+          <t>52.112,57,98.66</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1715,12 +1715,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>13.1,27,30.56</t>
+          <t>57.212,69,110.56</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -1730,7 +1730,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1748,12 +1748,12 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>20,43,46.66</t>
+          <t>64.112,85,126.66</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1781,12 +1781,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>12.6,18,29.4</t>
+          <t>57.912,64,112.19</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>KMITL (Start),Suvarnabhumi Airport</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1814,12 +1814,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>57.712,68,111.73</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1847,12 +1847,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>57.212,69,110.56</t>
+          <t>62.512,74,122.92</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -1862,7 +1862,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1880,12 +1880,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>20,43,46.66</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
         </is>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1913,12 +1913,12 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>8,15,18.66</t>
+          <t>57.912,64,112.19</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1946,12 +1946,12 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>57.712,68,111.73</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1979,12 +1979,12 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>57.212,69,110.56</t>
+          <t>62.512,74,122.92</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2012,12 +2012,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>20,43,46.66</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2045,12 +2045,12 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>52,55,98.66</t>
+          <t>52.112,57,98.66</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2078,12 +2078,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>57.712,68,111.73</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2111,12 +2111,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>13.1,27,30.56</t>
+          <t>57.212,69,110.56</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>20,43,46.66</t>
+          <t>64.112,85,126.66</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2177,12 +2177,12 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>8,15,18.66</t>
+          <t>52.112,57,98.66</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -2225,7 +2225,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2243,12 +2243,12 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>13.1,27,30.56</t>
+          <t>57.212,69,110.56</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -2258,7 +2258,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2276,12 +2276,12 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>20,43,46.66</t>
+          <t>64.112,85,126.66</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2309,12 +2309,12 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>12.6,18,29.4</t>
+          <t>57.912,64,112.19</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>KMITL (Start),Suvarnabhumi Airport</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2342,12 +2342,12 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>57.712,68,111.73</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2375,12 +2375,12 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>57.212,69,110.56</t>
+          <t>62.512,74,122.92</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -2390,7 +2390,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2408,12 +2408,12 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>20,43,46.66</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2441,12 +2441,12 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>8,15,18.66</t>
+          <t>57.912,64,112.19</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2474,12 +2474,12 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>57.712,68,111.73</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2507,12 +2507,12 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>57.212,69,110.56</t>
+          <t>62.512,74,122.92</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -2522,7 +2522,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2540,12 +2540,12 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>20,43,46.66</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
         </is>
       </c>
     </row>
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2705,12 +2705,12 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>8,15,18.66</t>
+          <t>54.912,63,144.66</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -2885,7 +2885,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2903,12 +2903,12 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>60.012,75,156.56</t>
+          <t>65.312,80,168.92</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -2918,7 +2918,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>72.012,93,184.56</t>
+          <t>72.212,96,185.02</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -2951,7 +2951,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2969,12 +2969,12 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>54.912,63,144.66</t>
+          <t>60.712,70,158.19</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3035,12 +3035,12 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>60.012,75,156.56</t>
+          <t>65.312,80,168.92</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -3050,7 +3050,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>72.012,93,184.56</t>
+          <t>72.212,96,185.02</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3101,12 +3101,12 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>52,55,98.66</t>
+          <t>54.912,63,144.66</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -3215,7 +3215,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3233,12 +3233,12 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>8,15,18.66</t>
+          <t>54.912,63,144.66</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3431,12 +3431,12 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>60.012,75,156.56</t>
+          <t>65.312,80,168.92</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3464,7 +3464,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>72.012,93,184.56</t>
+          <t>72.212,96,185.02</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -3479,7 +3479,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3497,12 +3497,12 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>54.912,63,144.66</t>
+          <t>60.712,70,158.19</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -3545,7 +3545,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3563,12 +3563,12 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>60.012,75,156.56</t>
+          <t>65.312,80,168.92</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3596,7 +3596,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>72.012,93,184.56</t>
+          <t>72.212,96,185.02</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -3611,7 +3611,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3629,12 +3629,12 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>52.112,57,98.66</t>
+          <t>54.912,63,144.66</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -3743,7 +3743,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3761,12 +3761,12 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>8,15,18.66</t>
+          <t>54.912,63,144.66</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -3941,7 +3941,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3959,12 +3959,12 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>60.012,75,156.56</t>
+          <t>65.312,80,168.92</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -3974,7 +3974,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3992,7 +3992,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>72.012,93,184.56</t>
+          <t>72.212,96,185.02</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4025,12 +4025,12 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>54.912,63,144.66</t>
+          <t>60.712,70,158.19</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -4073,7 +4073,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4091,12 +4091,12 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>60.012,75,156.56</t>
+          <t>65.312,80,168.92</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -4106,7 +4106,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4124,7 +4124,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>72.012,93,184.56</t>
+          <t>72.212,96,185.02</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -4139,7 +4139,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4157,12 +4157,12 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>52,55,98.66</t>
+          <t>54.912,63,144.66</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4289,12 +4289,12 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>8,15,18.66</t>
+          <t>54.912,63,144.66</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4487,12 +4487,12 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>60.012,75,156.56</t>
+          <t>65.312,80,168.92</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -4502,7 +4502,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4520,7 +4520,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>72.012,93,184.56</t>
+          <t>72.212,96,185.02</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -4535,7 +4535,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4553,12 +4553,12 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>54.912,63,144.66</t>
+          <t>60.712,70,158.19</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4619,12 +4619,12 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>60.012,75,156.56</t>
+          <t>65.312,80,168.92</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -4634,7 +4634,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4652,7 +4652,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>72.012,93,184.56</t>
+          <t>72.212,96,185.02</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4718,12 +4718,12 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>59.712,94,111.73</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -4799,7 +4799,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4817,12 +4817,12 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>8,15,18.66</t>
+          <t>54.112,83,98.66</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -4931,7 +4931,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -4949,12 +4949,12 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>12.6,18,29.4</t>
+          <t>59.912,90,112.19</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>KMITL (Start),Suvarnabhumi Airport</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -4964,7 +4964,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4982,12 +4982,12 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>59.712,94,111.73</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -5030,7 +5030,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5048,12 +5048,12 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>20,43,46.66</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
         </is>
       </c>
     </row>
@@ -5063,7 +5063,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5081,12 +5081,12 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>8,15,18.66</t>
+          <t>59.912,90,112.19</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -5096,7 +5096,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5114,12 +5114,12 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>59.712,94,111.73</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5180,12 +5180,12 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>20,43,46.66</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
         </is>
       </c>
     </row>
@@ -5195,7 +5195,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5213,12 +5213,12 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>52,55,98.66</t>
+          <t>54.112,83,98.66</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -5228,7 +5228,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5246,12 +5246,12 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>59.712,94,111.73</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -5327,7 +5327,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5345,12 +5345,12 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>8,15,18.66</t>
+          <t>54.112,83,98.66</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -5459,7 +5459,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5477,12 +5477,12 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>12.6,18,29.4</t>
+          <t>59.912,90,112.19</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>KMITL (Start),Suvarnabhumi Airport</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -5492,7 +5492,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5510,12 +5510,12 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>59.712,94,111.73</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -5558,7 +5558,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5576,12 +5576,12 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>20,43,46.66</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
         </is>
       </c>
     </row>
@@ -5591,7 +5591,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5609,12 +5609,12 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>8,15,18.66</t>
+          <t>59.912,90,112.19</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -5624,7 +5624,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5642,12 +5642,12 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>59.712,94,111.73</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -5690,7 +5690,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5708,12 +5708,12 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>20,43,46.66</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
         </is>
       </c>
     </row>
@@ -5723,7 +5723,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5741,12 +5741,12 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>52.112,57,98.66</t>
+          <t>54.112,83,98.66</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -5756,7 +5756,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5774,12 +5774,12 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>59.712,94,111.73</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -5855,7 +5855,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5873,12 +5873,12 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>8,15,18.66</t>
+          <t>54.112,83,98.66</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -5987,7 +5987,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6005,12 +6005,12 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>12.6,18,29.4</t>
+          <t>59.912,90,112.19</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>KMITL (Start),Suvarnabhumi Airport</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -6020,7 +6020,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6038,12 +6038,12 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>59.712,94,111.73</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -6086,7 +6086,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6104,12 +6104,12 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>20,43,46.66</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
         </is>
       </c>
     </row>
@@ -6119,7 +6119,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -6137,12 +6137,12 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>8,15,18.66</t>
+          <t>59.912,90,112.19</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -6152,7 +6152,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6170,12 +6170,12 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>59.712,94,111.73</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -6218,7 +6218,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6236,12 +6236,12 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>20,43,46.66</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
         </is>
       </c>
     </row>
@@ -6251,7 +6251,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6269,12 +6269,12 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>52,55,98.66</t>
+          <t>54.112,83,98.66</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -6284,7 +6284,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6302,12 +6302,12 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>59.712,94,111.73</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -6383,7 +6383,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6401,12 +6401,12 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>8,15,18.66</t>
+          <t>54.112,83,98.66</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -6515,7 +6515,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6533,12 +6533,12 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>12.6,18,29.4</t>
+          <t>59.912,90,112.19</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>KMITL (Start),Suvarnabhumi Airport</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -6548,7 +6548,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6566,12 +6566,12 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>59.712,94,111.73</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -6614,7 +6614,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -6632,12 +6632,12 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>20,43,46.66</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
         </is>
       </c>
     </row>
@@ -6647,7 +6647,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -6665,12 +6665,12 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>8,15,18.66</t>
+          <t>59.912,90,112.19</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -6680,7 +6680,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -6698,12 +6698,12 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>59.712,94,111.73</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -6746,7 +6746,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -6764,12 +6764,12 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>20,43,46.66</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
         </is>
       </c>
     </row>
@@ -6779,7 +6779,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -6797,12 +6797,12 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>54.912,63,144.66</t>
+          <t>56.912,89,144.66</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -6911,7 +6911,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -6929,12 +6929,12 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>8,15,18.66</t>
+          <t>56.912,89,144.66</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -7043,7 +7043,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -7076,7 +7076,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -7094,12 +7094,12 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>62.512,100,157.73</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -7109,7 +7109,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -7127,12 +7127,12 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>13.1,27,30.56</t>
+          <t>67.312,106,168.92</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -7142,7 +7142,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -7160,12 +7160,12 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>74.012,119,184.56</t>
+          <t>66.912,91,172.66</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -7175,7 +7175,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -7193,12 +7193,12 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>56.912,89,144.66</t>
+          <t>62.712,96,158.19</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -7208,7 +7208,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -7226,12 +7226,12 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>62.512,100,157.73</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -7241,7 +7241,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -7259,12 +7259,12 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>13.1,27,30.56</t>
+          <t>67.312,106,168.92</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -7274,7 +7274,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -7292,12 +7292,12 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>74.012,119,184.56</t>
+          <t>66.912,91,172.66</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -7307,7 +7307,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -7325,12 +7325,12 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>52,55,98.66</t>
+          <t>56.912,89,144.66</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -7439,7 +7439,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -7457,12 +7457,12 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>8,15,18.66</t>
+          <t>56.912,89,144.66</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -7571,7 +7571,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -7604,7 +7604,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -7622,12 +7622,12 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>62.512,100,157.73</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -7637,7 +7637,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -7655,12 +7655,12 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>13.1,27,30.56</t>
+          <t>67.312,106,168.92</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -7670,7 +7670,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -7688,12 +7688,12 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>74.012,119,184.56</t>
+          <t>66.912,91,172.66</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -7703,7 +7703,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -7721,12 +7721,12 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>56.912,89,144.66</t>
+          <t>62.712,96,158.19</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -7736,7 +7736,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -7754,12 +7754,12 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>62.512,100,157.73</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -7769,7 +7769,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -7787,12 +7787,12 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>13.1,27,30.56</t>
+          <t>67.312,106,168.92</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -7802,7 +7802,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -7820,12 +7820,12 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>74.012,119,184.56</t>
+          <t>66.912,91,172.66</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -7835,7 +7835,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -7853,12 +7853,12 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>52.112,57,98.66</t>
+          <t>56.912,89,144.66</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -7967,7 +7967,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -7985,12 +7985,12 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>8,15,18.66</t>
+          <t>56.912,89,144.66</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -8099,7 +8099,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -8132,7 +8132,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -8150,12 +8150,12 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>62.512,100,157.73</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -8165,7 +8165,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -8183,12 +8183,12 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>13.1,27,30.56</t>
+          <t>67.312,106,168.92</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -8198,7 +8198,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -8216,12 +8216,12 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>74.012,119,184.56</t>
+          <t>66.912,91,172.66</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -8231,7 +8231,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -8249,12 +8249,12 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>56.912,89,144.66</t>
+          <t>62.712,96,158.19</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -8264,7 +8264,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -8282,12 +8282,12 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>62.512,100,157.73</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -8297,7 +8297,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -8315,12 +8315,12 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>13.1,27,30.56</t>
+          <t>67.312,106,168.92</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -8330,7 +8330,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -8348,12 +8348,12 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>74.012,119,184.56</t>
+          <t>66.912,91,172.66</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -8363,7 +8363,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -8381,12 +8381,12 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>52,55,98.66</t>
+          <t>56.912,89,144.66</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -8495,7 +8495,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -8513,12 +8513,12 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>8,15,18.66</t>
+          <t>56.912,89,144.66</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -8627,7 +8627,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -8660,7 +8660,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -8678,12 +8678,12 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>62.512,100,157.73</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -8693,7 +8693,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -8711,12 +8711,12 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>13.1,27,30.56</t>
+          <t>67.312,106,168.92</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -8726,7 +8726,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -8744,12 +8744,12 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>74.012,119,184.56</t>
+          <t>66.912,91,172.66</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -8759,7 +8759,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -8777,12 +8777,12 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>56.912,89,144.66</t>
+          <t>62.712,96,158.19</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -8792,7 +8792,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -8810,12 +8810,12 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>62.512,100,157.73</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -8825,7 +8825,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -8843,12 +8843,12 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>13.1,27,30.56</t>
+          <t>67.312,106,168.92</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -8858,7 +8858,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -8876,12 +8876,12 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>74.012,119,184.56</t>
+          <t>66.912,91,172.66</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -17372,7 +17372,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -17390,7 +17390,7 @@
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>20,42,46.66</t>
+          <t>20,43,46.66</t>
         </is>
       </c>
       <c r="G514" t="inlineStr">
@@ -17504,7 +17504,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -17522,7 +17522,7 @@
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t>20,42,46.66</t>
+          <t>20,43,46.66</t>
         </is>
       </c>
       <c r="G518" t="inlineStr">
@@ -17636,7 +17636,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -17654,12 +17654,12 @@
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>20,43,46.66</t>
+          <t>25.3,48,59.02</t>
         </is>
       </c>
       <c r="G522" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport</t>
         </is>
       </c>
     </row>
@@ -17768,7 +17768,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -17786,7 +17786,7 @@
       </c>
       <c r="F526" t="inlineStr">
         <is>
-          <t>20,43,46.66</t>
+          <t>20,42,46.66</t>
         </is>
       </c>
       <c r="G526" t="inlineStr">
@@ -17801,7 +17801,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -17819,12 +17819,12 @@
       </c>
       <c r="F527" t="inlineStr">
         <is>
-          <t>52,55,98.66</t>
+          <t>54.112,83,98.66</t>
         </is>
       </c>
       <c r="G527" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -17834,7 +17834,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -17852,12 +17852,12 @@
       </c>
       <c r="F528" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>59.712,94,111.73</t>
         </is>
       </c>
       <c r="G528" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -17867,7 +17867,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -17885,12 +17885,12 @@
       </c>
       <c r="F529" t="inlineStr">
         <is>
-          <t>13.1,27,30.56</t>
+          <t>59.212,95,110.56</t>
         </is>
       </c>
       <c r="G529" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -17900,7 +17900,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -17918,12 +17918,12 @@
       </c>
       <c r="F530" t="inlineStr">
         <is>
-          <t>20,43,46.66</t>
+          <t>66.112,111,126.66</t>
         </is>
       </c>
       <c r="G530" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -17933,7 +17933,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -17951,12 +17951,12 @@
       </c>
       <c r="F531" t="inlineStr">
         <is>
-          <t>8,15,18.66</t>
+          <t>54.112,83,98.66</t>
         </is>
       </c>
       <c r="G531" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -17966,7 +17966,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -17984,12 +17984,12 @@
       </c>
       <c r="F532" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>59.712,94,111.73</t>
         </is>
       </c>
       <c r="G532" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -17999,7 +17999,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -18017,12 +18017,12 @@
       </c>
       <c r="F533" t="inlineStr">
         <is>
-          <t>13.1,27,30.56</t>
+          <t>59.212,95,110.56</t>
         </is>
       </c>
       <c r="G533" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -18032,7 +18032,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -18050,12 +18050,12 @@
       </c>
       <c r="F534" t="inlineStr">
         <is>
-          <t>20,43,46.66</t>
+          <t>66.112,111,126.66</t>
         </is>
       </c>
       <c r="G534" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -18098,7 +18098,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -18116,12 +18116,12 @@
       </c>
       <c r="F536" t="inlineStr">
         <is>
-          <t>59.712,94,111.73</t>
+          <t>62.8,71,123.86</t>
         </is>
       </c>
       <c r="G536" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai</t>
         </is>
       </c>
     </row>
@@ -18131,7 +18131,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -18149,12 +18149,12 @@
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>59.212,95,110.56</t>
+          <t>62.4,72,122.92</t>
         </is>
       </c>
       <c r="G537" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai</t>
         </is>
       </c>
     </row>
@@ -18164,7 +18164,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -18182,12 +18182,12 @@
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>59.712,94,111.73</t>
+          <t>66.112,110,126.66</t>
         </is>
       </c>
       <c r="G538" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -18197,7 +18197,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -18215,12 +18215,12 @@
       </c>
       <c r="F539" t="inlineStr">
         <is>
-          <t>54.112,83,98.66</t>
+          <t>59.912,90,112.19</t>
         </is>
       </c>
       <c r="G539" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -18230,7 +18230,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -18248,12 +18248,12 @@
       </c>
       <c r="F540" t="inlineStr">
         <is>
-          <t>59.712,94,111.73</t>
+          <t>62.8,71,123.86</t>
         </is>
       </c>
       <c r="G540" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai</t>
         </is>
       </c>
     </row>
@@ -18263,7 +18263,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
@@ -18281,12 +18281,12 @@
       </c>
       <c r="F541" t="inlineStr">
         <is>
-          <t>59.212,95,110.56</t>
+          <t>62.4,72,122.92</t>
         </is>
       </c>
       <c r="G541" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai</t>
         </is>
       </c>
     </row>
@@ -18296,7 +18296,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -18314,12 +18314,12 @@
       </c>
       <c r="F542" t="inlineStr">
         <is>
-          <t>59.712,94,111.73</t>
+          <t>66.112,110,126.66</t>
         </is>
       </c>
       <c r="G542" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -18329,7 +18329,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -18347,12 +18347,12 @@
       </c>
       <c r="F543" t="inlineStr">
         <is>
-          <t>52.112,57,98.66</t>
+          <t>54.112,83,98.66</t>
         </is>
       </c>
       <c r="G543" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -18362,7 +18362,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -18380,12 +18380,12 @@
       </c>
       <c r="F544" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>59.712,94,111.73</t>
         </is>
       </c>
       <c r="G544" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -18395,7 +18395,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -18413,12 +18413,12 @@
       </c>
       <c r="F545" t="inlineStr">
         <is>
-          <t>13.1,27,30.56</t>
+          <t>59.212,95,110.56</t>
         </is>
       </c>
       <c r="G545" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -18428,7 +18428,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -18446,12 +18446,12 @@
       </c>
       <c r="F546" t="inlineStr">
         <is>
-          <t>20,43,46.66</t>
+          <t>66.112,111,126.66</t>
         </is>
       </c>
       <c r="G546" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -18461,7 +18461,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -18479,12 +18479,12 @@
       </c>
       <c r="F547" t="inlineStr">
         <is>
-          <t>8,15,18.66</t>
+          <t>54.112,83,98.66</t>
         </is>
       </c>
       <c r="G547" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -18494,7 +18494,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -18512,12 +18512,12 @@
       </c>
       <c r="F548" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>59.712,94,111.73</t>
         </is>
       </c>
       <c r="G548" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -18527,7 +18527,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -18545,12 +18545,12 @@
       </c>
       <c r="F549" t="inlineStr">
         <is>
-          <t>13.1,27,30.56</t>
+          <t>59.212,95,110.56</t>
         </is>
       </c>
       <c r="G549" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -18560,7 +18560,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -18578,12 +18578,12 @@
       </c>
       <c r="F550" t="inlineStr">
         <is>
-          <t>20,43,46.66</t>
+          <t>66.112,111,126.66</t>
         </is>
       </c>
       <c r="G550" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -18626,7 +18626,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -18644,12 +18644,12 @@
       </c>
       <c r="F552" t="inlineStr">
         <is>
-          <t>59.712,94,111.73</t>
+          <t>62.912,73,123.86</t>
         </is>
       </c>
       <c r="G552" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -18659,7 +18659,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -18677,12 +18677,12 @@
       </c>
       <c r="F553" t="inlineStr">
         <is>
-          <t>59.212,95,110.56</t>
+          <t>62.512,74,122.92</t>
         </is>
       </c>
       <c r="G553" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -18692,7 +18692,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -18710,12 +18710,12 @@
       </c>
       <c r="F554" t="inlineStr">
         <is>
-          <t>59.712,94,111.73</t>
+          <t>66.112,110,126.66</t>
         </is>
       </c>
       <c r="G554" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -18725,7 +18725,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -18743,12 +18743,12 @@
       </c>
       <c r="F555" t="inlineStr">
         <is>
-          <t>54.112,83,98.66</t>
+          <t>59.912,90,112.19</t>
         </is>
       </c>
       <c r="G555" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -18758,7 +18758,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -18776,12 +18776,12 @@
       </c>
       <c r="F556" t="inlineStr">
         <is>
-          <t>59.712,94,111.73</t>
+          <t>62.912,73,123.86</t>
         </is>
       </c>
       <c r="G556" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -18791,7 +18791,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -18809,12 +18809,12 @@
       </c>
       <c r="F557" t="inlineStr">
         <is>
-          <t>59.212,95,110.56</t>
+          <t>62.512,74,122.92</t>
         </is>
       </c>
       <c r="G557" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -18824,7 +18824,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -18842,12 +18842,12 @@
       </c>
       <c r="F558" t="inlineStr">
         <is>
-          <t>59.712,94,111.73</t>
+          <t>66.112,110,126.66</t>
         </is>
       </c>
       <c r="G558" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -18857,7 +18857,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -18875,12 +18875,12 @@
       </c>
       <c r="F559" t="inlineStr">
         <is>
-          <t>52,55,98.66</t>
+          <t>54.112,83,98.66</t>
         </is>
       </c>
       <c r="G559" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -18890,7 +18890,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -18908,12 +18908,12 @@
       </c>
       <c r="F560" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>59.712,94,111.73</t>
         </is>
       </c>
       <c r="G560" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -18923,7 +18923,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -18941,12 +18941,12 @@
       </c>
       <c r="F561" t="inlineStr">
         <is>
-          <t>13.1,27,30.56</t>
+          <t>59.212,95,110.56</t>
         </is>
       </c>
       <c r="G561" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -18956,7 +18956,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
@@ -18974,12 +18974,12 @@
       </c>
       <c r="F562" t="inlineStr">
         <is>
-          <t>20,43,46.66</t>
+          <t>66.112,111,126.66</t>
         </is>
       </c>
       <c r="G562" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -18989,7 +18989,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -19007,12 +19007,12 @@
       </c>
       <c r="F563" t="inlineStr">
         <is>
-          <t>8,15,18.66</t>
+          <t>54.112,83,98.66</t>
         </is>
       </c>
       <c r="G563" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -19022,7 +19022,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -19040,12 +19040,12 @@
       </c>
       <c r="F564" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>59.712,94,111.73</t>
         </is>
       </c>
       <c r="G564" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -19055,7 +19055,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -19073,12 +19073,12 @@
       </c>
       <c r="F565" t="inlineStr">
         <is>
-          <t>13.1,27,30.56</t>
+          <t>59.212,95,110.56</t>
         </is>
       </c>
       <c r="G565" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -19088,7 +19088,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -19106,12 +19106,12 @@
       </c>
       <c r="F566" t="inlineStr">
         <is>
-          <t>20,43,46.66</t>
+          <t>66.112,111,126.66</t>
         </is>
       </c>
       <c r="G566" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -19154,7 +19154,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -19172,12 +19172,12 @@
       </c>
       <c r="F568" t="inlineStr">
         <is>
-          <t>59.712,94,111.73</t>
+          <t>62.912,73,123.86</t>
         </is>
       </c>
       <c r="G568" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -19187,7 +19187,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
@@ -19205,12 +19205,12 @@
       </c>
       <c r="F569" t="inlineStr">
         <is>
-          <t>59.212,95,110.56</t>
+          <t>62.512,74,122.92</t>
         </is>
       </c>
       <c r="G569" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -19220,7 +19220,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -19238,12 +19238,12 @@
       </c>
       <c r="F570" t="inlineStr">
         <is>
-          <t>59.712,94,111.73</t>
+          <t>66.112,110,126.66</t>
         </is>
       </c>
       <c r="G570" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -19253,7 +19253,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -19271,12 +19271,12 @@
       </c>
       <c r="F571" t="inlineStr">
         <is>
-          <t>54.112,83,98.66</t>
+          <t>59.912,90,112.19</t>
         </is>
       </c>
       <c r="G571" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -19286,7 +19286,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -19304,12 +19304,12 @@
       </c>
       <c r="F572" t="inlineStr">
         <is>
-          <t>59.712,94,111.73</t>
+          <t>62.912,73,123.86</t>
         </is>
       </c>
       <c r="G572" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -19319,7 +19319,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -19337,12 +19337,12 @@
       </c>
       <c r="F573" t="inlineStr">
         <is>
-          <t>59.212,95,110.56</t>
+          <t>62.512,74,122.92</t>
         </is>
       </c>
       <c r="G573" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -19352,7 +19352,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -19370,12 +19370,12 @@
       </c>
       <c r="F574" t="inlineStr">
         <is>
-          <t>59.712,94,111.73</t>
+          <t>66.112,110,126.66</t>
         </is>
       </c>
       <c r="G574" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -19385,7 +19385,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -19403,12 +19403,12 @@
       </c>
       <c r="F575" t="inlineStr">
         <is>
-          <t>54.912,63,144.66</t>
+          <t>56.912,89,144.66</t>
         </is>
       </c>
       <c r="G575" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -19418,7 +19418,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -19436,12 +19436,12 @@
       </c>
       <c r="F576" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>62.512,100,157.73</t>
         </is>
       </c>
       <c r="G576" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -19451,7 +19451,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -19469,12 +19469,12 @@
       </c>
       <c r="F577" t="inlineStr">
         <is>
-          <t>60.012,75,156.56</t>
+          <t>62.012,101,156.56</t>
         </is>
       </c>
       <c r="G577" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -19484,7 +19484,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -19502,12 +19502,12 @@
       </c>
       <c r="F578" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>68.912,117,172.66</t>
         </is>
       </c>
       <c r="G578" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -19517,7 +19517,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -19535,12 +19535,12 @@
       </c>
       <c r="F579" t="inlineStr">
         <is>
-          <t>8,15,18.66</t>
+          <t>56.912,89,144.66</t>
         </is>
       </c>
       <c r="G579" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -19550,7 +19550,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -19568,12 +19568,12 @@
       </c>
       <c r="F580" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>62.512,100,157.73</t>
         </is>
       </c>
       <c r="G580" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -19583,7 +19583,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -19601,12 +19601,12 @@
       </c>
       <c r="F581" t="inlineStr">
         <is>
-          <t>60.012,75,156.56</t>
+          <t>62.012,101,156.56</t>
         </is>
       </c>
       <c r="G581" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -19616,7 +19616,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -19634,12 +19634,12 @@
       </c>
       <c r="F582" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>68.912,117,172.66</t>
         </is>
       </c>
       <c r="G582" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -19649,7 +19649,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -19667,12 +19667,12 @@
       </c>
       <c r="F583" t="inlineStr">
         <is>
-          <t>13.8,22,32.19</t>
+          <t>62.712,96,158.19</t>
         </is>
       </c>
       <c r="G583" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -19715,7 +19715,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
@@ -19733,12 +19733,12 @@
       </c>
       <c r="F585" t="inlineStr">
         <is>
-          <t>62.012,101,156.56</t>
+          <t>65.312,80,168.92</t>
         </is>
       </c>
       <c r="G585" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -19748,7 +19748,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -19766,12 +19766,12 @@
       </c>
       <c r="F586" t="inlineStr">
         <is>
-          <t>62.512,100,157.73</t>
+          <t>68.912,116,172.66</t>
         </is>
       </c>
       <c r="G586" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -19781,7 +19781,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -19799,12 +19799,12 @@
       </c>
       <c r="F587" t="inlineStr">
         <is>
-          <t>13.8,22,32.19</t>
+          <t>62.712,96,158.19</t>
         </is>
       </c>
       <c r="G587" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -19847,7 +19847,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -19865,12 +19865,12 @@
       </c>
       <c r="F589" t="inlineStr">
         <is>
-          <t>62.012,101,156.56</t>
+          <t>65.312,80,168.92</t>
         </is>
       </c>
       <c r="G589" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -19880,7 +19880,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -19898,12 +19898,12 @@
       </c>
       <c r="F590" t="inlineStr">
         <is>
-          <t>62.512,100,157.73</t>
+          <t>68.912,116,172.66</t>
         </is>
       </c>
       <c r="G590" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -19913,7 +19913,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -19931,12 +19931,12 @@
       </c>
       <c r="F591" t="inlineStr">
         <is>
-          <t>52,55,98.66</t>
+          <t>56.912,89,144.66</t>
         </is>
       </c>
       <c r="G591" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -19946,7 +19946,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -19964,12 +19964,12 @@
       </c>
       <c r="F592" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>62.512,100,157.73</t>
         </is>
       </c>
       <c r="G592" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -19979,7 +19979,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -19997,12 +19997,12 @@
       </c>
       <c r="F593" t="inlineStr">
         <is>
-          <t>60.012,75,156.56</t>
+          <t>62.012,101,156.56</t>
         </is>
       </c>
       <c r="G593" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -20012,7 +20012,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -20030,12 +20030,12 @@
       </c>
       <c r="F594" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>68.912,117,172.66</t>
         </is>
       </c>
       <c r="G594" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -20045,7 +20045,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -20063,12 +20063,12 @@
       </c>
       <c r="F595" t="inlineStr">
         <is>
-          <t>8,15,18.66</t>
+          <t>56.912,89,144.66</t>
         </is>
       </c>
       <c r="G595" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -20078,7 +20078,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -20096,12 +20096,12 @@
       </c>
       <c r="F596" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>62.512,100,157.73</t>
         </is>
       </c>
       <c r="G596" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -20111,7 +20111,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
@@ -20129,12 +20129,12 @@
       </c>
       <c r="F597" t="inlineStr">
         <is>
-          <t>60.012,75,156.56</t>
+          <t>62.012,101,156.56</t>
         </is>
       </c>
       <c r="G597" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -20144,7 +20144,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -20162,12 +20162,12 @@
       </c>
       <c r="F598" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>68.912,117,172.66</t>
         </is>
       </c>
       <c r="G598" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -20177,7 +20177,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -20195,12 +20195,12 @@
       </c>
       <c r="F599" t="inlineStr">
         <is>
-          <t>13.8,22,32.19</t>
+          <t>62.712,96,158.19</t>
         </is>
       </c>
       <c r="G599" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -20243,7 +20243,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -20261,12 +20261,12 @@
       </c>
       <c r="F601" t="inlineStr">
         <is>
-          <t>62.012,101,156.56</t>
+          <t>65.312,80,168.92</t>
         </is>
       </c>
       <c r="G601" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -20276,7 +20276,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -20294,12 +20294,12 @@
       </c>
       <c r="F602" t="inlineStr">
         <is>
-          <t>62.512,100,157.73</t>
+          <t>68.912,116,172.66</t>
         </is>
       </c>
       <c r="G602" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -20309,7 +20309,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -20327,12 +20327,12 @@
       </c>
       <c r="F603" t="inlineStr">
         <is>
-          <t>13.8,22,32.19</t>
+          <t>62.712,96,158.19</t>
         </is>
       </c>
       <c r="G603" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -20375,7 +20375,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -20393,12 +20393,12 @@
       </c>
       <c r="F605" t="inlineStr">
         <is>
-          <t>62.012,101,156.56</t>
+          <t>65.312,80,168.92</t>
         </is>
       </c>
       <c r="G605" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -20408,7 +20408,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -20426,12 +20426,12 @@
       </c>
       <c r="F606" t="inlineStr">
         <is>
-          <t>62.512,100,157.73</t>
+          <t>68.912,116,172.66</t>
         </is>
       </c>
       <c r="G606" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -20441,7 +20441,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -20459,12 +20459,12 @@
       </c>
       <c r="F607" t="inlineStr">
         <is>
-          <t>52.112,57,98.66</t>
+          <t>56.912,89,144.66</t>
         </is>
       </c>
       <c r="G607" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -20474,7 +20474,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
@@ -20492,12 +20492,12 @@
       </c>
       <c r="F608" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>62.512,100,157.73</t>
         </is>
       </c>
       <c r="G608" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -20507,7 +20507,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
@@ -20525,12 +20525,12 @@
       </c>
       <c r="F609" t="inlineStr">
         <is>
-          <t>60.012,75,156.56</t>
+          <t>62.012,101,156.56</t>
         </is>
       </c>
       <c r="G609" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -20540,7 +20540,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
@@ -20558,12 +20558,12 @@
       </c>
       <c r="F610" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>68.912,117,172.66</t>
         </is>
       </c>
       <c r="G610" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -20573,7 +20573,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
@@ -20591,12 +20591,12 @@
       </c>
       <c r="F611" t="inlineStr">
         <is>
-          <t>8,15,18.66</t>
+          <t>56.912,89,144.66</t>
         </is>
       </c>
       <c r="G611" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -20606,7 +20606,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -20624,12 +20624,12 @@
       </c>
       <c r="F612" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>62.512,100,157.73</t>
         </is>
       </c>
       <c r="G612" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -20639,7 +20639,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -20657,12 +20657,12 @@
       </c>
       <c r="F613" t="inlineStr">
         <is>
-          <t>60.012,75,156.56</t>
+          <t>62.012,101,156.56</t>
         </is>
       </c>
       <c r="G613" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -20672,7 +20672,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -20690,12 +20690,12 @@
       </c>
       <c r="F614" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>68.912,117,172.66</t>
         </is>
       </c>
       <c r="G614" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -20705,7 +20705,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
@@ -20723,12 +20723,12 @@
       </c>
       <c r="F615" t="inlineStr">
         <is>
-          <t>13.8,22,32.19</t>
+          <t>62.712,96,158.19</t>
         </is>
       </c>
       <c r="G615" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -20771,7 +20771,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
@@ -20789,12 +20789,12 @@
       </c>
       <c r="F617" t="inlineStr">
         <is>
-          <t>62.012,101,156.56</t>
+          <t>65.312,80,168.92</t>
         </is>
       </c>
       <c r="G617" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -20804,7 +20804,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
@@ -20822,12 +20822,12 @@
       </c>
       <c r="F618" t="inlineStr">
         <is>
-          <t>62.512,100,157.73</t>
+          <t>68.912,116,172.66</t>
         </is>
       </c>
       <c r="G618" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -20837,7 +20837,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -20855,12 +20855,12 @@
       </c>
       <c r="F619" t="inlineStr">
         <is>
-          <t>13.8,22,32.19</t>
+          <t>62.712,96,158.19</t>
         </is>
       </c>
       <c r="G619" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -20903,7 +20903,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -20921,12 +20921,12 @@
       </c>
       <c r="F621" t="inlineStr">
         <is>
-          <t>62.012,101,156.56</t>
+          <t>65.312,80,168.92</t>
         </is>
       </c>
       <c r="G621" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -20936,7 +20936,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -20954,12 +20954,12 @@
       </c>
       <c r="F622" t="inlineStr">
         <is>
-          <t>62.512,100,157.73</t>
+          <t>68.912,116,172.66</t>
         </is>
       </c>
       <c r="G622" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -20969,7 +20969,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -20987,12 +20987,12 @@
       </c>
       <c r="F623" t="inlineStr">
         <is>
-          <t>52,55,98.66</t>
+          <t>56.912,89,144.66</t>
         </is>
       </c>
       <c r="G623" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -21002,7 +21002,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -21020,12 +21020,12 @@
       </c>
       <c r="F624" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>62.512,100,157.73</t>
         </is>
       </c>
       <c r="G624" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -21035,7 +21035,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
@@ -21053,12 +21053,12 @@
       </c>
       <c r="F625" t="inlineStr">
         <is>
-          <t>60.012,75,156.56</t>
+          <t>62.012,101,156.56</t>
         </is>
       </c>
       <c r="G625" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -21068,7 +21068,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
@@ -21086,12 +21086,12 @@
       </c>
       <c r="F626" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>68.912,117,172.66</t>
         </is>
       </c>
       <c r="G626" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -21101,7 +21101,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -21119,12 +21119,12 @@
       </c>
       <c r="F627" t="inlineStr">
         <is>
-          <t>8,15,18.66</t>
+          <t>56.912,89,144.66</t>
         </is>
       </c>
       <c r="G627" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -21134,7 +21134,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -21152,12 +21152,12 @@
       </c>
       <c r="F628" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>62.512,100,157.73</t>
         </is>
       </c>
       <c r="G628" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -21167,7 +21167,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
@@ -21185,12 +21185,12 @@
       </c>
       <c r="F629" t="inlineStr">
         <is>
-          <t>60.012,75,156.56</t>
+          <t>62.012,101,156.56</t>
         </is>
       </c>
       <c r="G629" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -21200,7 +21200,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -21218,12 +21218,12 @@
       </c>
       <c r="F630" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>68.912,117,172.66</t>
         </is>
       </c>
       <c r="G630" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -21233,7 +21233,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -21251,12 +21251,12 @@
       </c>
       <c r="F631" t="inlineStr">
         <is>
-          <t>13.8,22,32.19</t>
+          <t>62.712,96,158.19</t>
         </is>
       </c>
       <c r="G631" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -21299,7 +21299,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -21317,12 +21317,12 @@
       </c>
       <c r="F633" t="inlineStr">
         <is>
-          <t>62.012,101,156.56</t>
+          <t>65.312,80,168.92</t>
         </is>
       </c>
       <c r="G633" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -21332,7 +21332,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -21350,12 +21350,12 @@
       </c>
       <c r="F634" t="inlineStr">
         <is>
-          <t>62.512,100,157.73</t>
+          <t>68.912,116,172.66</t>
         </is>
       </c>
       <c r="G634" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -21365,7 +21365,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -21383,12 +21383,12 @@
       </c>
       <c r="F635" t="inlineStr">
         <is>
-          <t>13.8,22,32.19</t>
+          <t>62.712,96,158.19</t>
         </is>
       </c>
       <c r="G635" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -21431,7 +21431,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -21449,12 +21449,12 @@
       </c>
       <c r="F637" t="inlineStr">
         <is>
-          <t>62.012,101,156.56</t>
+          <t>65.312,80,168.92</t>
         </is>
       </c>
       <c r="G637" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -21464,7 +21464,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -21482,12 +21482,12 @@
       </c>
       <c r="F638" t="inlineStr">
         <is>
-          <t>62.512,100,157.73</t>
+          <t>68.912,116,172.66</t>
         </is>
       </c>
       <c r="G638" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -21530,7 +21530,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -21548,12 +21548,12 @@
       </c>
       <c r="F640" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>59.712,94,111.73</t>
         </is>
       </c>
       <c r="G640" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -21563,7 +21563,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -21581,12 +21581,12 @@
       </c>
       <c r="F641" t="inlineStr">
         <is>
-          <t>13.1,27,30.56</t>
+          <t>59.212,95,110.56</t>
         </is>
       </c>
       <c r="G641" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -21596,7 +21596,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -21614,12 +21614,12 @@
       </c>
       <c r="F642" t="inlineStr">
         <is>
-          <t>20,43,46.66</t>
+          <t>66.112,111,126.66</t>
         </is>
       </c>
       <c r="G642" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -21629,7 +21629,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
@@ -21647,12 +21647,12 @@
       </c>
       <c r="F643" t="inlineStr">
         <is>
-          <t>8,15,18.66</t>
+          <t>54.112,83,98.66</t>
         </is>
       </c>
       <c r="G643" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -21662,7 +21662,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
@@ -21680,12 +21680,12 @@
       </c>
       <c r="F644" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>59.712,94,111.73</t>
         </is>
       </c>
       <c r="G644" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -21695,7 +21695,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -21713,12 +21713,12 @@
       </c>
       <c r="F645" t="inlineStr">
         <is>
-          <t>13.1,27,30.56</t>
+          <t>59.212,95,110.56</t>
         </is>
       </c>
       <c r="G645" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -21728,7 +21728,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
@@ -21746,12 +21746,12 @@
       </c>
       <c r="F646" t="inlineStr">
         <is>
-          <t>20,43,46.66</t>
+          <t>66.112,111,126.66</t>
         </is>
       </c>
       <c r="G646" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -21794,7 +21794,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
@@ -21812,12 +21812,12 @@
       </c>
       <c r="F648" t="inlineStr">
         <is>
-          <t>59.712,94,111.73</t>
+          <t>64.912,99,123.86</t>
         </is>
       </c>
       <c r="G648" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -21827,7 +21827,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -21845,12 +21845,12 @@
       </c>
       <c r="F649" t="inlineStr">
         <is>
-          <t>59.212,95,110.56</t>
+          <t>64.512,100,122.92</t>
         </is>
       </c>
       <c r="G649" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -21860,7 +21860,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
@@ -21878,12 +21878,12 @@
       </c>
       <c r="F650" t="inlineStr">
         <is>
-          <t>59.712,94,111.73</t>
+          <t>66.112,110,126.66</t>
         </is>
       </c>
       <c r="G650" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -21893,7 +21893,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
@@ -21911,12 +21911,12 @@
       </c>
       <c r="F651" t="inlineStr">
         <is>
-          <t>54.112,83,98.66</t>
+          <t>59.912,90,112.19</t>
         </is>
       </c>
       <c r="G651" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -21926,7 +21926,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
@@ -21944,12 +21944,12 @@
       </c>
       <c r="F652" t="inlineStr">
         <is>
-          <t>59.712,94,111.73</t>
+          <t>64.912,99,123.86</t>
         </is>
       </c>
       <c r="G652" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -21959,7 +21959,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
@@ -21977,12 +21977,12 @@
       </c>
       <c r="F653" t="inlineStr">
         <is>
-          <t>59.212,95,110.56</t>
+          <t>64.512,100,122.92</t>
         </is>
       </c>
       <c r="G653" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -21992,7 +21992,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -22010,12 +22010,12 @@
       </c>
       <c r="F654" t="inlineStr">
         <is>
-          <t>59.712,94,111.73</t>
+          <t>66.112,110,126.66</t>
         </is>
       </c>
       <c r="G654" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -22025,7 +22025,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -22043,12 +22043,12 @@
       </c>
       <c r="F655" t="inlineStr">
         <is>
-          <t>52,55,98.66</t>
+          <t>54.112,83,98.66</t>
         </is>
       </c>
       <c r="G655" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -22058,7 +22058,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
@@ -22076,12 +22076,12 @@
       </c>
       <c r="F656" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>59.712,94,111.73</t>
         </is>
       </c>
       <c r="G656" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -22091,7 +22091,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
@@ -22109,12 +22109,12 @@
       </c>
       <c r="F657" t="inlineStr">
         <is>
-          <t>13.1,27,30.56</t>
+          <t>59.212,95,110.56</t>
         </is>
       </c>
       <c r="G657" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -22124,7 +22124,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
@@ -22142,12 +22142,12 @@
       </c>
       <c r="F658" t="inlineStr">
         <is>
-          <t>20,43,46.66</t>
+          <t>66.112,111,126.66</t>
         </is>
       </c>
       <c r="G658" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -22157,7 +22157,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
@@ -22175,12 +22175,12 @@
       </c>
       <c r="F659" t="inlineStr">
         <is>
-          <t>8,15,18.66</t>
+          <t>54.112,83,98.66</t>
         </is>
       </c>
       <c r="G659" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -22190,7 +22190,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
@@ -22208,12 +22208,12 @@
       </c>
       <c r="F660" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>59.712,94,111.73</t>
         </is>
       </c>
       <c r="G660" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -22223,7 +22223,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
@@ -22241,12 +22241,12 @@
       </c>
       <c r="F661" t="inlineStr">
         <is>
-          <t>13.1,27,30.56</t>
+          <t>59.212,95,110.56</t>
         </is>
       </c>
       <c r="G661" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -22256,7 +22256,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -22274,12 +22274,12 @@
       </c>
       <c r="F662" t="inlineStr">
         <is>
-          <t>20,43,46.66</t>
+          <t>66.112,111,126.66</t>
         </is>
       </c>
       <c r="G662" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -22322,7 +22322,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
@@ -22340,12 +22340,12 @@
       </c>
       <c r="F664" t="inlineStr">
         <is>
-          <t>59.712,94,111.73</t>
+          <t>64.912,99,123.86</t>
         </is>
       </c>
       <c r="G664" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -22355,7 +22355,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
@@ -22373,12 +22373,12 @@
       </c>
       <c r="F665" t="inlineStr">
         <is>
-          <t>59.212,95,110.56</t>
+          <t>64.512,100,122.92</t>
         </is>
       </c>
       <c r="G665" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -22388,7 +22388,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
@@ -22406,12 +22406,12 @@
       </c>
       <c r="F666" t="inlineStr">
         <is>
-          <t>59.712,94,111.73</t>
+          <t>66.112,110,126.66</t>
         </is>
       </c>
       <c r="G666" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -22421,7 +22421,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
@@ -22439,12 +22439,12 @@
       </c>
       <c r="F667" t="inlineStr">
         <is>
-          <t>54.112,83,98.66</t>
+          <t>59.912,90,112.19</t>
         </is>
       </c>
       <c r="G667" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -22454,7 +22454,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
@@ -22472,12 +22472,12 @@
       </c>
       <c r="F668" t="inlineStr">
         <is>
-          <t>59.712,94,111.73</t>
+          <t>64.912,99,123.86</t>
         </is>
       </c>
       <c r="G668" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -22487,7 +22487,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -22505,12 +22505,12 @@
       </c>
       <c r="F669" t="inlineStr">
         <is>
-          <t>59.212,95,110.56</t>
+          <t>64.512,100,122.92</t>
         </is>
       </c>
       <c r="G669" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -22520,7 +22520,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -22538,12 +22538,12 @@
       </c>
       <c r="F670" t="inlineStr">
         <is>
-          <t>59.712,94,111.73</t>
+          <t>66.112,110,126.66</t>
         </is>
       </c>
       <c r="G670" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -22553,7 +22553,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
@@ -22571,12 +22571,12 @@
       </c>
       <c r="F671" t="inlineStr">
         <is>
-          <t>52.112,57,98.66</t>
+          <t>54.112,83,98.66</t>
         </is>
       </c>
       <c r="G671" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -22586,7 +22586,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
@@ -22604,12 +22604,12 @@
       </c>
       <c r="F672" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>59.712,94,111.73</t>
         </is>
       </c>
       <c r="G672" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -22619,7 +22619,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -22637,12 +22637,12 @@
       </c>
       <c r="F673" t="inlineStr">
         <is>
-          <t>13.1,27,30.56</t>
+          <t>59.212,95,110.56</t>
         </is>
       </c>
       <c r="G673" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -22652,7 +22652,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
@@ -22670,12 +22670,12 @@
       </c>
       <c r="F674" t="inlineStr">
         <is>
-          <t>20,43,46.66</t>
+          <t>66.112,111,126.66</t>
         </is>
       </c>
       <c r="G674" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -22685,7 +22685,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -22703,12 +22703,12 @@
       </c>
       <c r="F675" t="inlineStr">
         <is>
-          <t>8,15,18.66</t>
+          <t>54.112,83,98.66</t>
         </is>
       </c>
       <c r="G675" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -22718,7 +22718,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -22736,12 +22736,12 @@
       </c>
       <c r="F676" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>59.712,94,111.73</t>
         </is>
       </c>
       <c r="G676" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -22751,7 +22751,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
@@ -22769,12 +22769,12 @@
       </c>
       <c r="F677" t="inlineStr">
         <is>
-          <t>13.1,27,30.56</t>
+          <t>59.212,95,110.56</t>
         </is>
       </c>
       <c r="G677" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -22784,7 +22784,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
@@ -22802,12 +22802,12 @@
       </c>
       <c r="F678" t="inlineStr">
         <is>
-          <t>20,43,46.66</t>
+          <t>66.112,111,126.66</t>
         </is>
       </c>
       <c r="G678" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -22850,7 +22850,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
@@ -22868,12 +22868,12 @@
       </c>
       <c r="F680" t="inlineStr">
         <is>
-          <t>59.712,94,111.73</t>
+          <t>64.912,99,123.86</t>
         </is>
       </c>
       <c r="G680" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -22883,7 +22883,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
@@ -22901,12 +22901,12 @@
       </c>
       <c r="F681" t="inlineStr">
         <is>
-          <t>59.212,95,110.56</t>
+          <t>64.512,100,122.92</t>
         </is>
       </c>
       <c r="G681" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -22916,7 +22916,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
@@ -22934,12 +22934,12 @@
       </c>
       <c r="F682" t="inlineStr">
         <is>
-          <t>59.712,94,111.73</t>
+          <t>66.112,110,126.66</t>
         </is>
       </c>
       <c r="G682" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -22949,7 +22949,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
@@ -22967,12 +22967,12 @@
       </c>
       <c r="F683" t="inlineStr">
         <is>
-          <t>54.112,83,98.66</t>
+          <t>59.912,90,112.19</t>
         </is>
       </c>
       <c r="G683" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -22982,7 +22982,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
@@ -23000,12 +23000,12 @@
       </c>
       <c r="F684" t="inlineStr">
         <is>
-          <t>59.712,94,111.73</t>
+          <t>64.912,99,123.86</t>
         </is>
       </c>
       <c r="G684" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -23015,7 +23015,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
@@ -23033,12 +23033,12 @@
       </c>
       <c r="F685" t="inlineStr">
         <is>
-          <t>59.212,95,110.56</t>
+          <t>64.512,100,122.92</t>
         </is>
       </c>
       <c r="G685" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -23048,7 +23048,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
@@ -23066,12 +23066,12 @@
       </c>
       <c r="F686" t="inlineStr">
         <is>
-          <t>59.712,94,111.73</t>
+          <t>66.112,110,126.66</t>
         </is>
       </c>
       <c r="G686" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -23081,7 +23081,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
@@ -23099,12 +23099,12 @@
       </c>
       <c r="F687" t="inlineStr">
         <is>
-          <t>52,55,98.66</t>
+          <t>54.112,83,98.66</t>
         </is>
       </c>
       <c r="G687" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -23114,7 +23114,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
@@ -23132,12 +23132,12 @@
       </c>
       <c r="F688" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>59.712,94,111.73</t>
         </is>
       </c>
       <c r="G688" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -23147,7 +23147,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
@@ -23165,12 +23165,12 @@
       </c>
       <c r="F689" t="inlineStr">
         <is>
-          <t>13.1,27,30.56</t>
+          <t>59.212,95,110.56</t>
         </is>
       </c>
       <c r="G689" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -23180,7 +23180,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
@@ -23198,12 +23198,12 @@
       </c>
       <c r="F690" t="inlineStr">
         <is>
-          <t>20,43,46.66</t>
+          <t>66.112,111,126.66</t>
         </is>
       </c>
       <c r="G690" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -23213,7 +23213,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
@@ -23231,12 +23231,12 @@
       </c>
       <c r="F691" t="inlineStr">
         <is>
-          <t>8,15,18.66</t>
+          <t>54.112,83,98.66</t>
         </is>
       </c>
       <c r="G691" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -23246,7 +23246,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
@@ -23264,12 +23264,12 @@
       </c>
       <c r="F692" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>59.712,94,111.73</t>
         </is>
       </c>
       <c r="G692" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -23279,7 +23279,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
@@ -23297,12 +23297,12 @@
       </c>
       <c r="F693" t="inlineStr">
         <is>
-          <t>13.1,27,30.56</t>
+          <t>59.212,95,110.56</t>
         </is>
       </c>
       <c r="G693" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -23312,7 +23312,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
@@ -23330,12 +23330,12 @@
       </c>
       <c r="F694" t="inlineStr">
         <is>
-          <t>20,43,46.66</t>
+          <t>66.112,111,126.66</t>
         </is>
       </c>
       <c r="G694" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -23378,7 +23378,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
@@ -23396,12 +23396,12 @@
       </c>
       <c r="F696" t="inlineStr">
         <is>
-          <t>59.712,94,111.73</t>
+          <t>64.912,99,123.86</t>
         </is>
       </c>
       <c r="G696" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -23411,7 +23411,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -23429,12 +23429,12 @@
       </c>
       <c r="F697" t="inlineStr">
         <is>
-          <t>59.212,95,110.56</t>
+          <t>64.512,100,122.92</t>
         </is>
       </c>
       <c r="G697" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -23444,7 +23444,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -23462,12 +23462,12 @@
       </c>
       <c r="F698" t="inlineStr">
         <is>
-          <t>59.712,94,111.73</t>
+          <t>66.112,110,126.66</t>
         </is>
       </c>
       <c r="G698" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -23477,7 +23477,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
@@ -23495,12 +23495,12 @@
       </c>
       <c r="F699" t="inlineStr">
         <is>
-          <t>54.112,83,98.66</t>
+          <t>59.912,90,112.19</t>
         </is>
       </c>
       <c r="G699" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -23510,7 +23510,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
@@ -23528,12 +23528,12 @@
       </c>
       <c r="F700" t="inlineStr">
         <is>
-          <t>59.712,94,111.73</t>
+          <t>64.912,99,123.86</t>
         </is>
       </c>
       <c r="G700" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -23543,7 +23543,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
@@ -23561,12 +23561,12 @@
       </c>
       <c r="F701" t="inlineStr">
         <is>
-          <t>59.212,95,110.56</t>
+          <t>64.512,100,122.92</t>
         </is>
       </c>
       <c r="G701" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -23576,7 +23576,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
@@ -23594,12 +23594,12 @@
       </c>
       <c r="F702" t="inlineStr">
         <is>
-          <t>59.712,94,111.73</t>
+          <t>66.112,110,126.66</t>
         </is>
       </c>
       <c r="G702" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -23609,7 +23609,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -23627,12 +23627,12 @@
       </c>
       <c r="F703" t="inlineStr">
         <is>
-          <t>54.912,63,144.66</t>
+          <t>56.912,89,144.66</t>
         </is>
       </c>
       <c r="G703" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -23642,7 +23642,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -23660,12 +23660,12 @@
       </c>
       <c r="F704" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>62.512,100,157.73</t>
         </is>
       </c>
       <c r="G704" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -23675,7 +23675,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
@@ -23693,12 +23693,12 @@
       </c>
       <c r="F705" t="inlineStr">
         <is>
-          <t>60.012,75,156.56</t>
+          <t>62.012,101,156.56</t>
         </is>
       </c>
       <c r="G705" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -23708,7 +23708,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
@@ -23726,12 +23726,12 @@
       </c>
       <c r="F706" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>68.912,117,172.66</t>
         </is>
       </c>
       <c r="G706" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -23741,7 +23741,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
@@ -23759,12 +23759,12 @@
       </c>
       <c r="F707" t="inlineStr">
         <is>
-          <t>8,15,18.66</t>
+          <t>56.912,89,144.66</t>
         </is>
       </c>
       <c r="G707" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -23774,7 +23774,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
@@ -23792,12 +23792,12 @@
       </c>
       <c r="F708" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>62.512,100,157.73</t>
         </is>
       </c>
       <c r="G708" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -23807,7 +23807,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
@@ -23825,12 +23825,12 @@
       </c>
       <c r="F709" t="inlineStr">
         <is>
-          <t>60.012,75,156.56</t>
+          <t>62.012,101,156.56</t>
         </is>
       </c>
       <c r="G709" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -23840,7 +23840,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -23858,12 +23858,12 @@
       </c>
       <c r="F710" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>68.912,117,172.66</t>
         </is>
       </c>
       <c r="G710" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -23873,7 +23873,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -23891,12 +23891,12 @@
       </c>
       <c r="F711" t="inlineStr">
         <is>
-          <t>13.8,22,32.19</t>
+          <t>62.712,96,158.19</t>
         </is>
       </c>
       <c r="G711" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -23906,7 +23906,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
@@ -23924,12 +23924,12 @@
       </c>
       <c r="F712" t="inlineStr">
         <is>
-          <t>62.512,100,157.73</t>
+          <t>67.712,105,169.86</t>
         </is>
       </c>
       <c r="G712" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -23939,7 +23939,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
@@ -23957,12 +23957,12 @@
       </c>
       <c r="F713" t="inlineStr">
         <is>
-          <t>62.012,101,156.56</t>
+          <t>67.312,106,168.92</t>
         </is>
       </c>
       <c r="G713" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -23972,7 +23972,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -23990,12 +23990,12 @@
       </c>
       <c r="F714" t="inlineStr">
         <is>
-          <t>62.512,100,157.73</t>
+          <t>68.912,116,172.66</t>
         </is>
       </c>
       <c r="G714" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -24005,7 +24005,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
@@ -24023,12 +24023,12 @@
       </c>
       <c r="F715" t="inlineStr">
         <is>
-          <t>13.8,22,32.19</t>
+          <t>62.712,96,158.19</t>
         </is>
       </c>
       <c r="G715" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -24038,7 +24038,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
@@ -24056,12 +24056,12 @@
       </c>
       <c r="F716" t="inlineStr">
         <is>
-          <t>62.512,100,157.73</t>
+          <t>67.712,105,169.86</t>
         </is>
       </c>
       <c r="G716" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -24071,7 +24071,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
@@ -24089,12 +24089,12 @@
       </c>
       <c r="F717" t="inlineStr">
         <is>
-          <t>62.012,101,156.56</t>
+          <t>67.312,106,168.92</t>
         </is>
       </c>
       <c r="G717" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -24104,7 +24104,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -24122,12 +24122,12 @@
       </c>
       <c r="F718" t="inlineStr">
         <is>
-          <t>62.512,100,157.73</t>
+          <t>68.912,116,172.66</t>
         </is>
       </c>
       <c r="G718" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -24137,7 +24137,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
@@ -24155,12 +24155,12 @@
       </c>
       <c r="F719" t="inlineStr">
         <is>
-          <t>52,55,98.66</t>
+          <t>56.912,89,144.66</t>
         </is>
       </c>
       <c r="G719" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -24170,7 +24170,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -24188,12 +24188,12 @@
       </c>
       <c r="F720" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>62.512,100,157.73</t>
         </is>
       </c>
       <c r="G720" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -24203,7 +24203,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
@@ -24221,12 +24221,12 @@
       </c>
       <c r="F721" t="inlineStr">
         <is>
-          <t>60.012,75,156.56</t>
+          <t>62.012,101,156.56</t>
         </is>
       </c>
       <c r="G721" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -24236,7 +24236,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
@@ -24254,12 +24254,12 @@
       </c>
       <c r="F722" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>68.912,117,172.66</t>
         </is>
       </c>
       <c r="G722" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -24269,7 +24269,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
@@ -24287,12 +24287,12 @@
       </c>
       <c r="F723" t="inlineStr">
         <is>
-          <t>8,15,18.66</t>
+          <t>56.912,89,144.66</t>
         </is>
       </c>
       <c r="G723" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -24302,7 +24302,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
@@ -24320,12 +24320,12 @@
       </c>
       <c r="F724" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>62.512,100,157.73</t>
         </is>
       </c>
       <c r="G724" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -24335,7 +24335,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
@@ -24353,12 +24353,12 @@
       </c>
       <c r="F725" t="inlineStr">
         <is>
-          <t>60.012,75,156.56</t>
+          <t>62.012,101,156.56</t>
         </is>
       </c>
       <c r="G725" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -24368,7 +24368,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
@@ -24386,12 +24386,12 @@
       </c>
       <c r="F726" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>68.912,117,172.66</t>
         </is>
       </c>
       <c r="G726" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -24401,7 +24401,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
@@ -24419,12 +24419,12 @@
       </c>
       <c r="F727" t="inlineStr">
         <is>
-          <t>13.8,22,32.19</t>
+          <t>62.712,96,158.19</t>
         </is>
       </c>
       <c r="G727" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -24434,7 +24434,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
@@ -24452,12 +24452,12 @@
       </c>
       <c r="F728" t="inlineStr">
         <is>
-          <t>62.512,100,157.73</t>
+          <t>67.712,105,169.86</t>
         </is>
       </c>
       <c r="G728" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -24467,7 +24467,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
@@ -24485,12 +24485,12 @@
       </c>
       <c r="F729" t="inlineStr">
         <is>
-          <t>62.012,101,156.56</t>
+          <t>67.312,106,168.92</t>
         </is>
       </c>
       <c r="G729" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -24500,7 +24500,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
@@ -24518,12 +24518,12 @@
       </c>
       <c r="F730" t="inlineStr">
         <is>
-          <t>62.512,100,157.73</t>
+          <t>68.912,116,172.66</t>
         </is>
       </c>
       <c r="G730" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -24533,7 +24533,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C731" t="inlineStr">
@@ -24551,12 +24551,12 @@
       </c>
       <c r="F731" t="inlineStr">
         <is>
-          <t>13.8,22,32.19</t>
+          <t>62.712,96,158.19</t>
         </is>
       </c>
       <c r="G731" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -24566,7 +24566,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
@@ -24584,12 +24584,12 @@
       </c>
       <c r="F732" t="inlineStr">
         <is>
-          <t>62.512,100,157.73</t>
+          <t>67.712,105,169.86</t>
         </is>
       </c>
       <c r="G732" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -24599,7 +24599,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
@@ -24617,12 +24617,12 @@
       </c>
       <c r="F733" t="inlineStr">
         <is>
-          <t>62.012,101,156.56</t>
+          <t>67.312,106,168.92</t>
         </is>
       </c>
       <c r="G733" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -24632,7 +24632,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C734" t="inlineStr">
@@ -24650,12 +24650,12 @@
       </c>
       <c r="F734" t="inlineStr">
         <is>
-          <t>62.512,100,157.73</t>
+          <t>68.912,116,172.66</t>
         </is>
       </c>
       <c r="G734" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -24665,7 +24665,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
@@ -24683,12 +24683,12 @@
       </c>
       <c r="F735" t="inlineStr">
         <is>
-          <t>52.112,57,98.66</t>
+          <t>56.912,89,144.66</t>
         </is>
       </c>
       <c r="G735" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -24698,7 +24698,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C736" t="inlineStr">
@@ -24716,12 +24716,12 @@
       </c>
       <c r="F736" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>62.512,100,157.73</t>
         </is>
       </c>
       <c r="G736" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -24731,7 +24731,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C737" t="inlineStr">
@@ -24749,12 +24749,12 @@
       </c>
       <c r="F737" t="inlineStr">
         <is>
-          <t>60.012,75,156.56</t>
+          <t>62.012,101,156.56</t>
         </is>
       </c>
       <c r="G737" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -24764,7 +24764,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C738" t="inlineStr">
@@ -24782,12 +24782,12 @@
       </c>
       <c r="F738" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>68.912,117,172.66</t>
         </is>
       </c>
       <c r="G738" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -24797,7 +24797,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -24815,12 +24815,12 @@
       </c>
       <c r="F739" t="inlineStr">
         <is>
-          <t>8,15,18.66</t>
+          <t>56.912,89,144.66</t>
         </is>
       </c>
       <c r="G739" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -24830,7 +24830,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
@@ -24848,12 +24848,12 @@
       </c>
       <c r="F740" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>62.512,100,157.73</t>
         </is>
       </c>
       <c r="G740" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -24863,7 +24863,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C741" t="inlineStr">
@@ -24881,12 +24881,12 @@
       </c>
       <c r="F741" t="inlineStr">
         <is>
-          <t>60.012,75,156.56</t>
+          <t>62.012,101,156.56</t>
         </is>
       </c>
       <c r="G741" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -24896,7 +24896,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C742" t="inlineStr">
@@ -24914,12 +24914,12 @@
       </c>
       <c r="F742" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>68.912,117,172.66</t>
         </is>
       </c>
       <c r="G742" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -24929,7 +24929,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C743" t="inlineStr">
@@ -24947,12 +24947,12 @@
       </c>
       <c r="F743" t="inlineStr">
         <is>
-          <t>13.8,22,32.19</t>
+          <t>62.712,96,158.19</t>
         </is>
       </c>
       <c r="G743" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -24962,7 +24962,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C744" t="inlineStr">
@@ -24980,12 +24980,12 @@
       </c>
       <c r="F744" t="inlineStr">
         <is>
-          <t>62.512,100,157.73</t>
+          <t>67.712,105,169.86</t>
         </is>
       </c>
       <c r="G744" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -24995,7 +24995,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C745" t="inlineStr">
@@ -25013,12 +25013,12 @@
       </c>
       <c r="F745" t="inlineStr">
         <is>
-          <t>62.012,101,156.56</t>
+          <t>67.312,106,168.92</t>
         </is>
       </c>
       <c r="G745" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -25028,7 +25028,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
@@ -25046,12 +25046,12 @@
       </c>
       <c r="F746" t="inlineStr">
         <is>
-          <t>62.512,100,157.73</t>
+          <t>68.912,116,172.66</t>
         </is>
       </c>
       <c r="G746" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -25061,7 +25061,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
@@ -25079,12 +25079,12 @@
       </c>
       <c r="F747" t="inlineStr">
         <is>
-          <t>13.8,22,32.19</t>
+          <t>62.712,96,158.19</t>
         </is>
       </c>
       <c r="G747" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -25094,7 +25094,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C748" t="inlineStr">
@@ -25112,12 +25112,12 @@
       </c>
       <c r="F748" t="inlineStr">
         <is>
-          <t>62.512,100,157.73</t>
+          <t>67.712,105,169.86</t>
         </is>
       </c>
       <c r="G748" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -25127,7 +25127,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C749" t="inlineStr">
@@ -25145,12 +25145,12 @@
       </c>
       <c r="F749" t="inlineStr">
         <is>
-          <t>62.012,101,156.56</t>
+          <t>67.312,106,168.92</t>
         </is>
       </c>
       <c r="G749" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -25160,7 +25160,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
@@ -25178,12 +25178,12 @@
       </c>
       <c r="F750" t="inlineStr">
         <is>
-          <t>62.512,100,157.73</t>
+          <t>68.912,116,172.66</t>
         </is>
       </c>
       <c r="G750" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -25193,7 +25193,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
@@ -25211,12 +25211,12 @@
       </c>
       <c r="F751" t="inlineStr">
         <is>
-          <t>52,55,98.66</t>
+          <t>56.912,89,144.66</t>
         </is>
       </c>
       <c r="G751" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -25226,7 +25226,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C752" t="inlineStr">
@@ -25244,12 +25244,12 @@
       </c>
       <c r="F752" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>62.512,100,157.73</t>
         </is>
       </c>
       <c r="G752" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -25259,7 +25259,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C753" t="inlineStr">
@@ -25277,12 +25277,12 @@
       </c>
       <c r="F753" t="inlineStr">
         <is>
-          <t>60.012,75,156.56</t>
+          <t>62.012,101,156.56</t>
         </is>
       </c>
       <c r="G753" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -25292,7 +25292,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C754" t="inlineStr">
@@ -25310,12 +25310,12 @@
       </c>
       <c r="F754" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>68.912,117,172.66</t>
         </is>
       </c>
       <c r="G754" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -25325,7 +25325,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C755" t="inlineStr">
@@ -25343,12 +25343,12 @@
       </c>
       <c r="F755" t="inlineStr">
         <is>
-          <t>8,15,18.66</t>
+          <t>56.912,89,144.66</t>
         </is>
       </c>
       <c r="G755" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -25358,7 +25358,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C756" t="inlineStr">
@@ -25376,12 +25376,12 @@
       </c>
       <c r="F756" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>62.512,100,157.73</t>
         </is>
       </c>
       <c r="G756" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -25391,7 +25391,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
@@ -25409,12 +25409,12 @@
       </c>
       <c r="F757" t="inlineStr">
         <is>
-          <t>60.012,75,156.56</t>
+          <t>62.012,101,156.56</t>
         </is>
       </c>
       <c r="G757" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -25424,7 +25424,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C758" t="inlineStr">
@@ -25442,12 +25442,12 @@
       </c>
       <c r="F758" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>68.912,117,172.66</t>
         </is>
       </c>
       <c r="G758" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -25457,7 +25457,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C759" t="inlineStr">
@@ -25475,12 +25475,12 @@
       </c>
       <c r="F759" t="inlineStr">
         <is>
-          <t>13.8,22,32.19</t>
+          <t>62.712,96,158.19</t>
         </is>
       </c>
       <c r="G759" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -25490,7 +25490,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
@@ -25508,12 +25508,12 @@
       </c>
       <c r="F760" t="inlineStr">
         <is>
-          <t>62.512,100,157.73</t>
+          <t>67.712,105,169.86</t>
         </is>
       </c>
       <c r="G760" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -25523,7 +25523,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C761" t="inlineStr">
@@ -25541,12 +25541,12 @@
       </c>
       <c r="F761" t="inlineStr">
         <is>
-          <t>62.012,101,156.56</t>
+          <t>67.312,106,168.92</t>
         </is>
       </c>
       <c r="G761" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -25556,7 +25556,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
@@ -25574,12 +25574,12 @@
       </c>
       <c r="F762" t="inlineStr">
         <is>
-          <t>62.512,100,157.73</t>
+          <t>68.912,116,172.66</t>
         </is>
       </c>
       <c r="G762" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -25589,7 +25589,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C763" t="inlineStr">
@@ -25607,12 +25607,12 @@
       </c>
       <c r="F763" t="inlineStr">
         <is>
-          <t>13.8,22,32.19</t>
+          <t>62.712,96,158.19</t>
         </is>
       </c>
       <c r="G763" t="inlineStr">
         <is>
-          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -25622,7 +25622,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C764" t="inlineStr">
@@ -25640,12 +25640,12 @@
       </c>
       <c r="F764" t="inlineStr">
         <is>
-          <t>62.512,100,157.73</t>
+          <t>67.712,105,169.86</t>
         </is>
       </c>
       <c r="G764" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -25655,7 +25655,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C765" t="inlineStr">
@@ -25673,12 +25673,12 @@
       </c>
       <c r="F765" t="inlineStr">
         <is>
-          <t>62.012,101,156.56</t>
+          <t>67.312,106,168.92</t>
         </is>
       </c>
       <c r="G765" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -25688,7 +25688,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
@@ -25706,12 +25706,12 @@
       </c>
       <c r="F766" t="inlineStr">
         <is>
-          <t>62.512,100,157.73</t>
+          <t>68.912,116,172.66</t>
         </is>
       </c>
       <c r="G766" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>

--- a/Export Data.xlsx
+++ b/Export Data.xlsx
@@ -608,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>13.6,26,31.73</t>
+          <t>14.9,31,34.76</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>13.1,27,30.56</t>
+          <t>14.4,31,33.59</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -674,7 +674,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>20,43,46.66</t>
+          <t>21.3,47,49.69</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -725,12 +725,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>12.6,18,29.4</t>
+          <t>13.8,22,32.19</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>KMITL (Start),Suvarnabhumi Airport</t>
+          <t>KMITL (Start),Airport Rail Link Lat Krabang,Suvarnabhumi Airport</t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -791,7 +791,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>18.4,32,42.92</t>
+          <t>20.2,38,47.12</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>25.1,45,58.56</t>
+          <t>25.3,48,59.02</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -890,12 +890,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>18.8,31,43.86</t>
+          <t>14.9,31,34.76</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -923,12 +923,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>13.1,27,30.56</t>
+          <t>20.2,38,47.12</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport</t>
         </is>
       </c>
     </row>
@@ -938,7 +938,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>20,43,46.66</t>
+          <t>21.3,47,49.69</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>57.712,68,111.73</t>
+          <t>59.012,73,114.76</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>57.212,69,110.56</t>
+          <t>58.512,73,113.59</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>64.112,85,126.66</t>
+          <t>65.412,89,129.69</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>57.712,68,111.73</t>
+          <t>59.012,73,114.76</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>57.212,69,110.56</t>
+          <t>58.512,73,113.59</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>64.112,85,126.66</t>
+          <t>65.412,89,129.69</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1286,12 +1286,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>62.8,71,123.86</t>
+          <t>18.8,31,43.86</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1352,12 +1352,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>20,43,46.66</t>
+          <t>69.3,88,139.02</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai</t>
         </is>
       </c>
     </row>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1418,12 +1418,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>62.8,71,123.86</t>
+          <t>14.9,31,34.76</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1484,12 +1484,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>20,43,46.66</t>
+          <t>69.3,88,139.02</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai</t>
         </is>
       </c>
     </row>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>57.712,68,111.73</t>
+          <t>59.012,73,114.76</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>57.212,69,110.56</t>
+          <t>58.512,73,113.59</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>64.112,85,126.66</t>
+          <t>65.412,89,129.69</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>57.712,68,111.73</t>
+          <t>59.012,73,114.76</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>57.212,69,110.56</t>
+          <t>58.512,73,113.59</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1730,7 +1730,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1748,7 +1748,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>64.112,85,126.66</t>
+          <t>65.412,89,129.69</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1814,12 +1814,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>57.712,68,111.73</t>
+          <t>62.912,73,123.86</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1847,12 +1847,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>62.512,74,122.92</t>
+          <t>64.2,78,127.12</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai</t>
         </is>
       </c>
     </row>
@@ -1862,7 +1862,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1880,12 +1880,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>20,43,46.66</t>
+          <t>69.412,90,139.02</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1946,12 +1946,12 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>57.712,68,111.73</t>
+          <t>62.912,73,123.86</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1979,12 +1979,12 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>62.512,74,122.92</t>
+          <t>64.2,78,127.12</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai</t>
         </is>
       </c>
     </row>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2012,12 +2012,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>20,43,46.66</t>
+          <t>69.412,90,139.02</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>57.712,68,111.73</t>
+          <t>59.012,73,114.76</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2093,7 +2093,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>57.212,69,110.56</t>
+          <t>58.512,73,113.59</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2126,7 +2126,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>64.112,85,126.66</t>
+          <t>65.412,89,129.69</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>57.712,68,111.73</t>
+          <t>59.012,73,114.76</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2225,7 +2225,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>57.212,69,110.56</t>
+          <t>58.512,73,113.59</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2258,7 +2258,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>64.112,85,126.66</t>
+          <t>65.412,89,129.69</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2342,12 +2342,12 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>57.712,68,111.73</t>
+          <t>62.912,73,123.86</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2375,12 +2375,12 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>62.512,74,122.92</t>
+          <t>64.2,78,127.12</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai</t>
         </is>
       </c>
     </row>
@@ -2390,7 +2390,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2408,12 +2408,12 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>20,43,46.66</t>
+          <t>69.412,90,139.02</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2474,12 +2474,12 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>57.712,68,111.73</t>
+          <t>62.912,73,123.86</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2507,12 +2507,12 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>62.512,74,122.92</t>
+          <t>64.2,78,127.12</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai</t>
         </is>
       </c>
     </row>
@@ -2522,7 +2522,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2540,12 +2540,12 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>20,43,46.66</t>
+          <t>69.412,90,139.02</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>60.512,74,157.73</t>
+          <t>61.812,79,160.76</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -2621,7 +2621,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>60.012,75,156.56</t>
+          <t>61.312,79,159.59</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2654,7 +2654,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>66.912,91,172.66</t>
+          <t>68.212,95,175.69</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -2720,7 +2720,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2738,7 +2738,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>60.512,74,157.73</t>
+          <t>61.812,79,160.76</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -2753,7 +2753,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>60.012,75,156.56</t>
+          <t>61.312,79,159.59</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>66.912,91,172.66</t>
+          <t>68.212,95,175.69</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -2852,7 +2852,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2870,12 +2870,12 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>60.512,74,157.73</t>
+          <t>67.612,86,174.29</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -2885,7 +2885,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>65.312,80,168.92</t>
+          <t>67.112,86,173.12</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2936,12 +2936,12 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>72.212,96,185.02</t>
+          <t>25.3,48,59.02</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport</t>
         </is>
       </c>
     </row>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3002,7 +3002,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>60.512,74,157.73</t>
+          <t>61.812,79,160.76</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3017,7 +3017,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3035,7 +3035,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>65.312,80,168.92</t>
+          <t>67.112,86,173.12</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3050,7 +3050,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3068,12 +3068,12 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>72.212,96,185.02</t>
+          <t>21.3,47,49.69</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
         </is>
       </c>
     </row>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3134,7 +3134,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>60.512,74,157.73</t>
+          <t>61.812,79,160.76</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>60.012,75,156.56</t>
+          <t>61.312,79,159.59</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3182,7 +3182,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3200,7 +3200,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>66.912,91,172.66</t>
+          <t>68.212,95,175.69</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>60.512,74,157.73</t>
+          <t>61.812,79,160.76</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3299,7 +3299,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>60.012,75,156.56</t>
+          <t>61.312,79,159.59</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>66.912,91,172.66</t>
+          <t>68.212,95,175.69</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -3380,7 +3380,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3398,12 +3398,12 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>60.512,74,157.73</t>
+          <t>67.612,86,174.29</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3431,7 +3431,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>65.312,80,168.92</t>
+          <t>67.112,86,173.12</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3464,12 +3464,12 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>72.212,96,185.02</t>
+          <t>25.3,48,59.02</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport</t>
         </is>
       </c>
     </row>
@@ -3512,7 +3512,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>60.512,74,157.73</t>
+          <t>61.812,79,160.76</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -3545,7 +3545,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3563,7 +3563,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>65.312,80,168.92</t>
+          <t>67.112,86,173.12</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3596,12 +3596,12 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>72.212,96,185.02</t>
+          <t>21.3,47,49.69</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
         </is>
       </c>
     </row>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>60.512,74,157.73</t>
+          <t>61.812,79,160.76</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>60.012,75,156.56</t>
+          <t>61.312,79,159.59</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3728,7 +3728,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>66.912,91,172.66</t>
+          <t>68.212,95,175.69</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>60.512,74,157.73</t>
+          <t>61.812,79,160.76</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>60.012,75,156.56</t>
+          <t>61.312,79,159.59</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -3842,7 +3842,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3860,7 +3860,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>66.912,91,172.66</t>
+          <t>68.212,95,175.69</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -3908,7 +3908,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3926,12 +3926,12 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>60.512,74,157.73</t>
+          <t>67.612,86,174.29</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -3941,7 +3941,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3959,7 +3959,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>65.312,80,168.92</t>
+          <t>67.112,86,173.12</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -3974,7 +3974,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3992,12 +3992,12 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>72.212,96,185.02</t>
+          <t>25.3,48,59.02</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport</t>
         </is>
       </c>
     </row>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4058,7 +4058,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>60.512,74,157.73</t>
+          <t>61.812,79,160.76</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -4073,7 +4073,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4091,7 +4091,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>65.312,80,168.92</t>
+          <t>67.112,86,173.12</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -4106,7 +4106,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4124,12 +4124,12 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>72.212,96,185.02</t>
+          <t>21.3,47,49.69</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
         </is>
       </c>
     </row>
@@ -4172,7 +4172,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4190,7 +4190,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>60.512,74,157.73</t>
+          <t>61.812,79,160.76</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -4205,7 +4205,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>60.012,75,156.56</t>
+          <t>61.312,79,159.59</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -4238,7 +4238,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4256,7 +4256,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>66.912,91,172.66</t>
+          <t>68.212,95,175.69</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4322,7 +4322,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>60.512,74,157.73</t>
+          <t>61.812,79,160.76</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4355,7 +4355,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>60.012,75,156.56</t>
+          <t>61.312,79,159.59</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4388,7 +4388,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>66.912,91,172.66</t>
+          <t>68.212,95,175.69</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4454,12 +4454,12 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>60.512,74,157.73</t>
+          <t>67.612,86,174.29</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4487,7 +4487,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>65.312,80,168.92</t>
+          <t>67.112,86,173.12</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -4502,7 +4502,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4520,12 +4520,12 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>72.212,96,185.02</t>
+          <t>25.3,48,59.02</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport</t>
         </is>
       </c>
     </row>
@@ -4568,7 +4568,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4586,7 +4586,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>60.512,74,157.73</t>
+          <t>61.812,79,160.76</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -4601,7 +4601,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4619,7 +4619,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>65.312,80,168.92</t>
+          <t>67.112,86,173.12</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -4634,7 +4634,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4652,12 +4652,12 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>72.212,96,185.02</t>
+          <t>21.3,47,49.69</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
         </is>
       </c>
     </row>
@@ -4700,7 +4700,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4718,7 +4718,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>59.712,94,111.73</t>
+          <t>61.012,99,114.76</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4751,7 +4751,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>59.212,95,110.56</t>
+          <t>60.512,99,113.59</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -4766,7 +4766,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4784,7 +4784,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>66.112,111,126.66</t>
+          <t>67.412,115,129.69</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -4832,7 +4832,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4850,7 +4850,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>59.712,94,111.73</t>
+          <t>61.012,99,114.76</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4883,7 +4883,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>59.212,95,110.56</t>
+          <t>60.512,99,113.59</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -4898,7 +4898,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4916,7 +4916,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>66.112,111,126.66</t>
+          <t>67.412,115,129.69</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -4964,7 +4964,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4982,12 +4982,12 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>59.712,94,111.73</t>
+          <t>64.912,99,123.86</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -4997,7 +4997,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5015,12 +5015,12 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>64.512,100,122.92</t>
+          <t>64.2,78,127.12</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai</t>
         </is>
       </c>
     </row>
@@ -5030,7 +5030,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5048,12 +5048,12 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>20,43,46.66</t>
+          <t>71.412,116,139.02</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -5096,7 +5096,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5114,12 +5114,12 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>59.712,94,111.73</t>
+          <t>64.912,99,123.86</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -5129,7 +5129,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5147,12 +5147,12 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>64.512,100,122.92</t>
+          <t>64.2,78,127.12</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai</t>
         </is>
       </c>
     </row>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5180,12 +5180,12 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>20,43,46.66</t>
+          <t>71.412,116,139.02</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -5228,7 +5228,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5246,7 +5246,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>59.712,94,111.73</t>
+          <t>61.012,99,114.76</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -5261,7 +5261,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5279,7 +5279,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>59.212,95,110.56</t>
+          <t>60.512,99,113.59</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5312,7 +5312,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>66.112,111,126.66</t>
+          <t>67.412,115,129.69</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -5360,7 +5360,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5378,7 +5378,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>59.712,94,111.73</t>
+          <t>61.012,99,114.76</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -5393,7 +5393,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5411,7 +5411,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>59.212,95,110.56</t>
+          <t>60.512,99,113.59</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -5426,7 +5426,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5444,7 +5444,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>66.112,111,126.66</t>
+          <t>67.412,115,129.69</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -5492,7 +5492,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5510,12 +5510,12 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>59.712,94,111.73</t>
+          <t>64.912,99,123.86</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5543,12 +5543,12 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>64.512,100,122.92</t>
+          <t>64.2,78,127.12</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai</t>
         </is>
       </c>
     </row>
@@ -5558,7 +5558,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5576,12 +5576,12 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>20,43,46.66</t>
+          <t>71.412,116,139.02</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -5624,7 +5624,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5642,12 +5642,12 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>59.712,94,111.73</t>
+          <t>64.912,99,123.86</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -5657,7 +5657,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5675,12 +5675,12 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>64.512,100,122.92</t>
+          <t>64.2,78,127.12</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai</t>
         </is>
       </c>
     </row>
@@ -5690,7 +5690,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5708,12 +5708,12 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>20,43,46.66</t>
+          <t>71.412,116,139.02</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -5756,7 +5756,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5774,7 +5774,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>59.712,94,111.73</t>
+          <t>61.012,99,114.76</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -5789,7 +5789,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5807,7 +5807,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>59.212,95,110.56</t>
+          <t>60.512,99,113.59</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -5822,7 +5822,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5840,7 +5840,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>66.112,111,126.66</t>
+          <t>67.412,115,129.69</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -5888,7 +5888,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>59.712,94,111.73</t>
+          <t>61.012,99,114.76</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -5921,7 +5921,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -5939,7 +5939,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>59.212,95,110.56</t>
+          <t>60.512,99,113.59</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -5954,7 +5954,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -5972,7 +5972,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>66.112,111,126.66</t>
+          <t>67.412,115,129.69</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -6020,7 +6020,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6038,12 +6038,12 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>59.712,94,111.73</t>
+          <t>64.912,99,123.86</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -6053,7 +6053,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6071,12 +6071,12 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>64.512,100,122.92</t>
+          <t>64.2,78,127.12</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai</t>
         </is>
       </c>
     </row>
@@ -6086,7 +6086,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6104,12 +6104,12 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>20,43,46.66</t>
+          <t>71.412,116,139.02</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -6152,7 +6152,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6170,12 +6170,12 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>59.712,94,111.73</t>
+          <t>64.912,99,123.86</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6203,12 +6203,12 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>64.512,100,122.92</t>
+          <t>64.2,78,127.12</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai</t>
         </is>
       </c>
     </row>
@@ -6218,7 +6218,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6236,12 +6236,12 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>20,43,46.66</t>
+          <t>71.412,116,139.02</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -6284,7 +6284,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6302,7 +6302,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>59.712,94,111.73</t>
+          <t>61.012,99,114.76</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -6317,7 +6317,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -6335,7 +6335,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>59.212,95,110.56</t>
+          <t>60.512,99,113.59</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -6350,7 +6350,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>66.112,111,126.66</t>
+          <t>67.412,115,129.69</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -6416,7 +6416,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -6434,7 +6434,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>59.712,94,111.73</t>
+          <t>61.012,99,114.76</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -6449,7 +6449,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -6467,7 +6467,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>59.212,95,110.56</t>
+          <t>60.512,99,113.59</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -6482,7 +6482,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -6500,7 +6500,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>66.112,111,126.66</t>
+          <t>67.412,115,129.69</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -6548,7 +6548,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6566,12 +6566,12 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>59.712,94,111.73</t>
+          <t>64.912,99,123.86</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -6581,7 +6581,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6599,12 +6599,12 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>64.512,100,122.92</t>
+          <t>64.2,78,127.12</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai</t>
         </is>
       </c>
     </row>
@@ -6614,7 +6614,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -6632,12 +6632,12 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>20,43,46.66</t>
+          <t>71.412,116,139.02</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -6680,7 +6680,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -6698,12 +6698,12 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>59.712,94,111.73</t>
+          <t>64.912,99,123.86</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -6713,7 +6713,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -6731,12 +6731,12 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>64.512,100,122.92</t>
+          <t>64.2,78,127.12</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai</t>
         </is>
       </c>
     </row>
@@ -6746,7 +6746,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -6764,12 +6764,12 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>20,43,46.66</t>
+          <t>71.412,116,139.02</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -6812,7 +6812,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -6830,7 +6830,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>62.512,100,157.73</t>
+          <t>63.812,105,160.76</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -6845,7 +6845,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -6863,7 +6863,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>62.012,101,156.56</t>
+          <t>63.312,105,159.59</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -6878,7 +6878,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>68.912,117,172.66</t>
+          <t>70.212,121,175.69</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -6962,7 +6962,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>62.512,100,157.73</t>
+          <t>63.812,105,160.76</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -6977,7 +6977,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -6995,7 +6995,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>62.012,101,156.56</t>
+          <t>63.312,105,159.59</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -7010,7 +7010,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -7028,7 +7028,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>68.912,117,172.66</t>
+          <t>70.212,121,175.69</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -7076,7 +7076,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -7094,12 +7094,12 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>62.512,100,157.73</t>
+          <t>67.612,86,174.29</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -7109,7 +7109,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -7127,12 +7127,12 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>67.312,106,168.92</t>
+          <t>67.112,86,173.12</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -7142,7 +7142,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -7160,12 +7160,12 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>66.912,91,172.66</t>
+          <t>25.3,48,59.02</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport</t>
         </is>
       </c>
     </row>
@@ -7208,7 +7208,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -7226,12 +7226,12 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>62.512,100,157.73</t>
+          <t>61.812,79,160.76</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -7241,7 +7241,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -7259,12 +7259,12 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>67.312,106,168.92</t>
+          <t>67.112,86,173.12</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -7274,7 +7274,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -7292,12 +7292,12 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>66.912,91,172.66</t>
+          <t>21.3,47,49.69</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
         </is>
       </c>
     </row>
@@ -7340,7 +7340,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -7358,7 +7358,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>62.512,100,157.73</t>
+          <t>63.812,105,160.76</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -7373,7 +7373,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -7391,7 +7391,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>62.012,101,156.56</t>
+          <t>63.312,105,159.59</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -7406,7 +7406,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>68.912,117,172.66</t>
+          <t>70.212,121,175.69</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -7490,7 +7490,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>62.512,100,157.73</t>
+          <t>63.812,105,160.76</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -7505,7 +7505,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -7523,7 +7523,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>62.012,101,156.56</t>
+          <t>63.312,105,159.59</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -7538,7 +7538,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -7556,7 +7556,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>68.912,117,172.66</t>
+          <t>70.212,121,175.69</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -7604,7 +7604,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -7622,12 +7622,12 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>62.512,100,157.73</t>
+          <t>67.612,86,174.29</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -7637,7 +7637,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -7655,12 +7655,12 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>67.312,106,168.92</t>
+          <t>67.112,86,173.12</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -7670,7 +7670,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -7688,12 +7688,12 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>66.912,91,172.66</t>
+          <t>25.3,48,59.02</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport</t>
         </is>
       </c>
     </row>
@@ -7736,7 +7736,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -7754,12 +7754,12 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>62.512,100,157.73</t>
+          <t>61.812,79,160.76</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -7769,7 +7769,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -7787,12 +7787,12 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>67.312,106,168.92</t>
+          <t>67.112,86,173.12</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -7802,7 +7802,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -7820,12 +7820,12 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>66.912,91,172.66</t>
+          <t>21.3,47,49.69</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
         </is>
       </c>
     </row>
@@ -7868,7 +7868,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -7886,7 +7886,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>62.512,100,157.73</t>
+          <t>63.812,105,160.76</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -7901,7 +7901,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -7919,7 +7919,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>62.012,101,156.56</t>
+          <t>63.312,105,159.59</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -7934,7 +7934,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>68.912,117,172.66</t>
+          <t>70.212,121,175.69</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -8000,7 +8000,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -8018,7 +8018,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>62.512,100,157.73</t>
+          <t>63.812,105,160.76</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -8033,7 +8033,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>62.012,101,156.56</t>
+          <t>63.312,105,159.59</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -8066,7 +8066,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -8084,7 +8084,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>68.912,117,172.66</t>
+          <t>70.212,121,175.69</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -8132,7 +8132,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -8150,12 +8150,12 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>62.512,100,157.73</t>
+          <t>67.612,86,174.29</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -8165,7 +8165,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -8183,12 +8183,12 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>67.312,106,168.92</t>
+          <t>67.112,86,173.12</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -8198,7 +8198,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -8216,12 +8216,12 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>66.912,91,172.66</t>
+          <t>25.3,48,59.02</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport</t>
         </is>
       </c>
     </row>
@@ -8264,7 +8264,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -8282,12 +8282,12 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>62.512,100,157.73</t>
+          <t>61.812,79,160.76</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -8297,7 +8297,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -8315,12 +8315,12 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>67.312,106,168.92</t>
+          <t>67.112,86,173.12</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -8330,7 +8330,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -8348,12 +8348,12 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>66.912,91,172.66</t>
+          <t>21.3,47,49.69</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
         </is>
       </c>
     </row>
@@ -8396,7 +8396,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -8414,7 +8414,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>62.512,100,157.73</t>
+          <t>63.812,105,160.76</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -8429,7 +8429,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -8447,7 +8447,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>62.012,101,156.56</t>
+          <t>63.312,105,159.59</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -8462,7 +8462,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -8480,7 +8480,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>68.912,117,172.66</t>
+          <t>70.212,121,175.69</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -8528,7 +8528,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -8546,7 +8546,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>62.512,100,157.73</t>
+          <t>63.812,105,160.76</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -8561,7 +8561,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -8579,7 +8579,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>62.012,101,156.56</t>
+          <t>63.312,105,159.59</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -8594,7 +8594,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -8612,7 +8612,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>68.912,117,172.66</t>
+          <t>70.212,121,175.69</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -8660,7 +8660,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -8678,12 +8678,12 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>62.512,100,157.73</t>
+          <t>67.612,86,174.29</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -8693,7 +8693,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -8711,12 +8711,12 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>67.312,106,168.92</t>
+          <t>67.112,86,173.12</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -8726,7 +8726,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -8744,12 +8744,12 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>66.912,91,172.66</t>
+          <t>25.3,48,59.02</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport</t>
         </is>
       </c>
     </row>
@@ -8792,7 +8792,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -8810,12 +8810,12 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>62.512,100,157.73</t>
+          <t>61.812,79,160.76</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -8825,7 +8825,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -8843,12 +8843,12 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>67.312,106,168.92</t>
+          <t>67.112,86,173.12</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -8858,7 +8858,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -8876,12 +8876,12 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>66.912,91,172.66</t>
+          <t>21.3,47,49.69</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
         </is>
       </c>
     </row>
@@ -17768,7 +17768,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -17786,12 +17786,12 @@
       </c>
       <c r="F526" t="inlineStr">
         <is>
-          <t>20,42,46.66</t>
+          <t>25.3,48,59.02</t>
         </is>
       </c>
       <c r="G526" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport</t>
         </is>
       </c>
     </row>
@@ -18164,7 +18164,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -18182,12 +18182,12 @@
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>66.112,110,126.66</t>
+          <t>69.3,88,139.02</t>
         </is>
       </c>
       <c r="G538" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai</t>
         </is>
       </c>
     </row>
@@ -18296,7 +18296,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -18314,12 +18314,12 @@
       </c>
       <c r="F542" t="inlineStr">
         <is>
-          <t>66.112,110,126.66</t>
+          <t>69.3,88,139.02</t>
         </is>
       </c>
       <c r="G542" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai</t>
         </is>
       </c>
     </row>
@@ -18692,7 +18692,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -18710,12 +18710,12 @@
       </c>
       <c r="F554" t="inlineStr">
         <is>
-          <t>66.112,110,126.66</t>
+          <t>69.412,90,139.02</t>
         </is>
       </c>
       <c r="G554" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -18824,7 +18824,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -18842,12 +18842,12 @@
       </c>
       <c r="F558" t="inlineStr">
         <is>
-          <t>66.112,110,126.66</t>
+          <t>69.412,90,139.02</t>
         </is>
       </c>
       <c r="G558" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -19220,7 +19220,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -19238,12 +19238,12 @@
       </c>
       <c r="F570" t="inlineStr">
         <is>
-          <t>66.112,110,126.66</t>
+          <t>69.412,90,139.02</t>
         </is>
       </c>
       <c r="G570" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -19352,7 +19352,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -19370,12 +19370,12 @@
       </c>
       <c r="F574" t="inlineStr">
         <is>
-          <t>66.112,110,126.66</t>
+          <t>69.412,90,139.02</t>
         </is>
       </c>
       <c r="G574" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -19748,7 +19748,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -19766,12 +19766,12 @@
       </c>
       <c r="F586" t="inlineStr">
         <is>
-          <t>68.912,116,172.66</t>
+          <t>72.212,96,185.02</t>
         </is>
       </c>
       <c r="G586" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -19880,7 +19880,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -19898,12 +19898,12 @@
       </c>
       <c r="F590" t="inlineStr">
         <is>
-          <t>68.912,116,172.66</t>
+          <t>72.212,96,185.02</t>
         </is>
       </c>
       <c r="G590" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -20276,7 +20276,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -20294,12 +20294,12 @@
       </c>
       <c r="F602" t="inlineStr">
         <is>
-          <t>68.912,116,172.66</t>
+          <t>72.212,96,185.02</t>
         </is>
       </c>
       <c r="G602" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -20408,7 +20408,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -20426,12 +20426,12 @@
       </c>
       <c r="F606" t="inlineStr">
         <is>
-          <t>68.912,116,172.66</t>
+          <t>72.212,96,185.02</t>
         </is>
       </c>
       <c r="G606" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -20804,7 +20804,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
@@ -20822,12 +20822,12 @@
       </c>
       <c r="F618" t="inlineStr">
         <is>
-          <t>68.912,116,172.66</t>
+          <t>72.212,96,185.02</t>
         </is>
       </c>
       <c r="G618" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -20936,7 +20936,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -20954,12 +20954,12 @@
       </c>
       <c r="F622" t="inlineStr">
         <is>
-          <t>68.912,116,172.66</t>
+          <t>72.212,96,185.02</t>
         </is>
       </c>
       <c r="G622" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -21332,7 +21332,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -21350,12 +21350,12 @@
       </c>
       <c r="F634" t="inlineStr">
         <is>
-          <t>68.912,116,172.66</t>
+          <t>72.212,96,185.02</t>
         </is>
       </c>
       <c r="G634" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -21464,7 +21464,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -21482,12 +21482,12 @@
       </c>
       <c r="F638" t="inlineStr">
         <is>
-          <t>68.912,116,172.66</t>
+          <t>72.212,96,185.02</t>
         </is>
       </c>
       <c r="G638" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -21860,7 +21860,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
@@ -21878,12 +21878,12 @@
       </c>
       <c r="F650" t="inlineStr">
         <is>
-          <t>66.112,110,126.66</t>
+          <t>71.412,116,139.02</t>
         </is>
       </c>
       <c r="G650" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -21992,7 +21992,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -22010,12 +22010,12 @@
       </c>
       <c r="F654" t="inlineStr">
         <is>
-          <t>66.112,110,126.66</t>
+          <t>71.412,116,139.02</t>
         </is>
       </c>
       <c r="G654" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -22388,7 +22388,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
@@ -22406,12 +22406,12 @@
       </c>
       <c r="F666" t="inlineStr">
         <is>
-          <t>66.112,110,126.66</t>
+          <t>71.412,116,139.02</t>
         </is>
       </c>
       <c r="G666" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -22520,7 +22520,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -22538,12 +22538,12 @@
       </c>
       <c r="F670" t="inlineStr">
         <is>
-          <t>66.112,110,126.66</t>
+          <t>71.412,116,139.02</t>
         </is>
       </c>
       <c r="G670" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -22916,7 +22916,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
@@ -22934,12 +22934,12 @@
       </c>
       <c r="F682" t="inlineStr">
         <is>
-          <t>66.112,110,126.66</t>
+          <t>71.412,116,139.02</t>
         </is>
       </c>
       <c r="G682" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -23048,7 +23048,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
@@ -23066,12 +23066,12 @@
       </c>
       <c r="F686" t="inlineStr">
         <is>
-          <t>66.112,110,126.66</t>
+          <t>71.412,116,139.02</t>
         </is>
       </c>
       <c r="G686" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -23444,7 +23444,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -23462,12 +23462,12 @@
       </c>
       <c r="F698" t="inlineStr">
         <is>
-          <t>66.112,110,126.66</t>
+          <t>71.412,116,139.02</t>
         </is>
       </c>
       <c r="G698" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -23576,7 +23576,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
@@ -23594,12 +23594,12 @@
       </c>
       <c r="F702" t="inlineStr">
         <is>
-          <t>66.112,110,126.66</t>
+          <t>71.412,116,139.02</t>
         </is>
       </c>
       <c r="G702" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -23972,7 +23972,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -23990,12 +23990,12 @@
       </c>
       <c r="F714" t="inlineStr">
         <is>
-          <t>68.912,116,172.66</t>
+          <t>74.212,122,185.02</t>
         </is>
       </c>
       <c r="G714" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -24104,7 +24104,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -24122,12 +24122,12 @@
       </c>
       <c r="F718" t="inlineStr">
         <is>
-          <t>68.912,116,172.66</t>
+          <t>74.212,122,185.02</t>
         </is>
       </c>
       <c r="G718" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -24500,7 +24500,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
@@ -24518,12 +24518,12 @@
       </c>
       <c r="F730" t="inlineStr">
         <is>
-          <t>68.912,116,172.66</t>
+          <t>74.212,122,185.02</t>
         </is>
       </c>
       <c r="G730" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -24632,7 +24632,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C734" t="inlineStr">
@@ -24650,12 +24650,12 @@
       </c>
       <c r="F734" t="inlineStr">
         <is>
-          <t>68.912,116,172.66</t>
+          <t>74.212,122,185.02</t>
         </is>
       </c>
       <c r="G734" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -25028,7 +25028,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
@@ -25046,12 +25046,12 @@
       </c>
       <c r="F746" t="inlineStr">
         <is>
-          <t>68.912,116,172.66</t>
+          <t>74.212,122,185.02</t>
         </is>
       </c>
       <c r="G746" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -25160,7 +25160,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
@@ -25178,12 +25178,12 @@
       </c>
       <c r="F750" t="inlineStr">
         <is>
-          <t>68.912,116,172.66</t>
+          <t>74.212,122,185.02</t>
         </is>
       </c>
       <c r="G750" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -25556,7 +25556,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
@@ -25574,12 +25574,12 @@
       </c>
       <c r="F762" t="inlineStr">
         <is>
-          <t>68.912,116,172.66</t>
+          <t>74.212,122,185.02</t>
         </is>
       </c>
       <c r="G762" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -25688,7 +25688,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
@@ -25706,12 +25706,12 @@
       </c>
       <c r="F766" t="inlineStr">
         <is>
-          <t>68.912,116,172.66</t>
+          <t>74.212,122,185.02</t>
         </is>
       </c>
       <c r="G766" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>

--- a/Export Data.xlsx
+++ b/Export Data.xlsx
@@ -806,7 +806,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>25.3,48,59.02</t>
+          <t>27.1,54,63.22</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -890,12 +890,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>14.9,31,34.76</t>
+          <t>23.1,39,53.89</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport</t>
         </is>
       </c>
     </row>
@@ -938,7 +938,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -956,12 +956,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>21.3,47,49.69</t>
+          <t>27.1,54,63.22</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1286,12 +1286,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>18.8,31,43.86</t>
+          <t>67.212,81,133.89</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1418,12 +1418,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>14.9,31,34.76</t>
+          <t>67.212,81,133.89</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>62.912,73,123.86</t>
+          <t>66.012,82,131.09</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1847,12 +1847,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>64.2,78,127.12</t>
+          <t>66.812,82,132.95</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>62.912,73,123.86</t>
+          <t>66.012,82,131.09</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1979,12 +1979,12 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>64.2,78,127.12</t>
+          <t>66.812,82,132.95</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2342,7 +2342,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>62.912,73,123.86</t>
+          <t>66.012,82,131.09</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2357,7 +2357,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2375,12 +2375,12 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>64.2,78,127.12</t>
+          <t>66.812,82,132.95</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2474,7 +2474,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>62.912,73,123.86</t>
+          <t>66.012,82,131.09</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2489,7 +2489,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2507,12 +2507,12 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>64.2,78,127.12</t>
+          <t>66.812,82,132.95</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -2852,7 +2852,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2870,7 +2870,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>67.612,86,174.29</t>
+          <t>70.012,87,179.89</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2936,12 +2936,12 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>25.3,48,59.02</t>
+          <t>74.012,102,189.22</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3002,12 +3002,12 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>61.812,79,160.76</t>
+          <t>70.012,87,179.89</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -3050,7 +3050,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3068,12 +3068,12 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>21.3,47,49.69</t>
+          <t>74.012,102,189.22</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>67.612,86,174.29</t>
+          <t>70.012,87,179.89</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3464,12 +3464,12 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>25.3,48,59.02</t>
+          <t>74.012,102,189.22</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -3512,7 +3512,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3530,12 +3530,12 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>61.812,79,160.76</t>
+          <t>70.012,87,179.89</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3596,12 +3596,12 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>21.3,47,49.69</t>
+          <t>74.012,102,189.22</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -3908,7 +3908,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3926,7 +3926,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>67.612,86,174.29</t>
+          <t>70.012,87,179.89</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -3974,7 +3974,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3992,12 +3992,12 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>25.3,48,59.02</t>
+          <t>74.012,102,189.22</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4058,12 +4058,12 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>61.812,79,160.76</t>
+          <t>70.012,87,179.89</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -4106,7 +4106,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4124,12 +4124,12 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>21.3,47,49.69</t>
+          <t>74.012,102,189.22</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -4436,7 +4436,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4454,7 +4454,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>67.612,86,174.29</t>
+          <t>70.012,87,179.89</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -4502,7 +4502,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4520,12 +4520,12 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>25.3,48,59.02</t>
+          <t>74.012,102,189.22</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -4568,7 +4568,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4586,12 +4586,12 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>61.812,79,160.76</t>
+          <t>70.012,87,179.89</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -4634,7 +4634,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4652,12 +4652,12 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>21.3,47,49.69</t>
+          <t>74.012,102,189.22</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -4964,7 +4964,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4982,7 +4982,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>64.912,99,123.86</t>
+          <t>68.012,108,131.09</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -4997,7 +4997,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5015,12 +5015,12 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>64.2,78,127.12</t>
+          <t>68.812,108,132.95</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -5096,7 +5096,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>64.912,99,123.86</t>
+          <t>68.012,108,131.09</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -5129,7 +5129,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5147,12 +5147,12 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>64.2,78,127.12</t>
+          <t>68.812,108,132.95</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -5492,7 +5492,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5510,7 +5510,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>64.912,99,123.86</t>
+          <t>68.012,108,131.09</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -5525,7 +5525,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5543,12 +5543,12 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>64.2,78,127.12</t>
+          <t>68.812,108,132.95</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -5624,7 +5624,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5642,7 +5642,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>64.912,99,123.86</t>
+          <t>68.012,108,131.09</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -5657,7 +5657,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5675,12 +5675,12 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>64.2,78,127.12</t>
+          <t>68.812,108,132.95</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -6020,7 +6020,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6038,7 +6038,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>64.912,99,123.86</t>
+          <t>68.012,108,131.09</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -6053,7 +6053,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6071,12 +6071,12 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>64.2,78,127.12</t>
+          <t>68.812,108,132.95</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -6152,7 +6152,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6170,7 +6170,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>64.912,99,123.86</t>
+          <t>68.012,108,131.09</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -6185,7 +6185,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6203,12 +6203,12 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>64.2,78,127.12</t>
+          <t>68.812,108,132.95</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -6548,7 +6548,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6566,7 +6566,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>64.912,99,123.86</t>
+          <t>68.012,108,131.09</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6599,12 +6599,12 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>64.2,78,127.12</t>
+          <t>68.812,108,132.95</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -6680,7 +6680,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -6698,7 +6698,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>64.912,99,123.86</t>
+          <t>68.012,108,131.09</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -6713,7 +6713,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -6731,12 +6731,12 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>64.2,78,127.12</t>
+          <t>68.812,108,132.95</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai</t>
+          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,Victory monument</t>
         </is>
       </c>
     </row>
@@ -7076,7 +7076,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -7094,7 +7094,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>67.612,86,174.29</t>
+          <t>70.012,87,179.89</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -7142,7 +7142,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -7160,12 +7160,12 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>25.3,48,59.02</t>
+          <t>76.012,128,189.22</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -7208,7 +7208,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -7226,12 +7226,12 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>61.812,79,160.76</t>
+          <t>70.012,87,179.89</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -7274,7 +7274,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -7292,12 +7292,12 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>21.3,47,49.69</t>
+          <t>76.012,128,189.22</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -7604,7 +7604,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -7622,7 +7622,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>67.612,86,174.29</t>
+          <t>70.012,87,179.89</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -7670,7 +7670,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -7688,12 +7688,12 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>25.3,48,59.02</t>
+          <t>76.012,128,189.22</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -7736,7 +7736,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -7754,12 +7754,12 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>61.812,79,160.76</t>
+          <t>70.012,87,179.89</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -7802,7 +7802,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -7820,12 +7820,12 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>21.3,47,49.69</t>
+          <t>76.012,128,189.22</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -8132,7 +8132,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -8150,7 +8150,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>67.612,86,174.29</t>
+          <t>70.012,87,179.89</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -8198,7 +8198,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -8216,12 +8216,12 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>25.3,48,59.02</t>
+          <t>76.012,128,189.22</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -8264,7 +8264,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -8282,12 +8282,12 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>61.812,79,160.76</t>
+          <t>70.012,87,179.89</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -8330,7 +8330,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -8348,12 +8348,12 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>21.3,47,49.69</t>
+          <t>76.012,128,189.22</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -8660,7 +8660,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -8678,7 +8678,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>67.612,86,174.29</t>
+          <t>70.012,87,179.89</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -8726,7 +8726,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -8744,12 +8744,12 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>25.3,48,59.02</t>
+          <t>76.012,128,189.22</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -8792,7 +8792,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -8810,12 +8810,12 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>61.812,79,160.76</t>
+          <t>70.012,87,179.89</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
+          <t>KMITL (Start),Robinson Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam</t>
         </is>
       </c>
     </row>
@@ -8858,7 +8858,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;BTS Siam--&gt;BTS Phayathai--&gt;Victory monument--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Suvarnabhumi Airport--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -8876,12 +8876,12 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>21.3,47,49.69</t>
+          <t>76.012,128,189.22</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai,BTS Siam,Victory monument</t>
         </is>
       </c>
     </row>
@@ -9980,7 +9980,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -9998,12 +9998,12 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>57.212,69,110.56</t>
+          <t>69.212,87,138.56</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -10112,7 +10112,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -10130,12 +10130,12 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>57.212,69,110.56</t>
+          <t>69.212,87,138.56</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -10508,7 +10508,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -10526,12 +10526,12 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>57.212,69,110.56</t>
+          <t>69.212,87,138.56</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
@@ -10640,7 +10640,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
+          <t>KMITL (Start)--&gt;Airport Rail Link Lat Krabang--&gt;Airport Rail Link Phayathai--&gt;BTS Phayathai--&gt;Airport Rail Link Phayathai--&gt;Airport Rail Link Lat Krabang--&gt;Robinson Lat Krabang--&gt;Suvarnabhumi Airport--&gt;The Paseo Mall Lat Krabang--&gt;KMITL (Start)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -10658,12 +10658,12 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>57.212,69,110.56</t>
+          <t>69.212,87,138.56</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>KMITL (Start),The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Airport Rail Link Phayathai,BTS Phayathai</t>
+          <t>KMITL (Start),Robinson Lat Krabang,The Paseo Mall Lat Krabang,Airport Rail Link Lat Krabang,Suvarnabhumi Airport,Airport Rail Link Phayathai,BTS Phayathai</t>
         </is>
       </c>
     </row>
